--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1092328.745866376</v>
+        <v>-1093008.162968207</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.06403846</v>
+        <v>5588220.064038461</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.7134039554108</v>
       </c>
       <c r="C11" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>238.6199786155032</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>239.9403233994415</v>
@@ -1424,7 +1424,7 @@
         <v>48.04258570959365</v>
       </c>
       <c r="U11" t="n">
-        <v>49.32899552165382</v>
+        <v>57.74355439234797</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>206.8201389062934</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>218.2167367024922</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>38.82520712046109</v>
       </c>
       <c r="S12" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>185.4764132683503</v>
+        <v>146.0199333355997</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2882692949636</v>
+        <v>44.89856912753546</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>54.72196615872122</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>71.31222784661874</v>
+        <v>24.5481180735552</v>
       </c>
       <c r="Y12" t="n">
         <v>19.2064129194888</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.5656295632557</v>
+        <v>10.33011483010787</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>58.28273605053796</v>
       </c>
       <c r="U13" t="n">
-        <v>112.9136404279224</v>
+        <v>172.2483790899363</v>
       </c>
       <c r="V13" t="n">
         <v>86.73825122973346</v>
@@ -1594,7 +1594,7 @@
         <v>57.55023929614984</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.42510705221753</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.039328767572396</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>48.04258570959365</v>
+        <v>48.04258570959367</v>
       </c>
       <c r="U14" t="n">
         <v>80.89774890663901</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>187.5198806735468</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>206.8201389062934</v>
+        <v>195.6546274343203</v>
       </c>
       <c r="Y14" t="n">
         <v>218.2167367024922</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>185.4764132683503</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2882692949636</v>
+        <v>47.45712948443981</v>
       </c>
       <c r="V15" t="n">
-        <v>88.84092644412553</v>
+        <v>54.72196615872122</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>67.51300991159491</v>
       </c>
       <c r="X15" t="n">
         <v>24.5481180735552</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>19.2064129194888</v>
       </c>
     </row>
     <row r="16">
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>80.2355147331478</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.3915765221569</v>
+        <v>35.39157652215689</v>
       </c>
       <c r="T16" t="n">
         <v>58.28273605053796</v>
@@ -1822,10 +1822,10 @@
         <v>112.9136404279224</v>
       </c>
       <c r="V16" t="n">
-        <v>86.73825122973346</v>
+        <v>130.9431802552583</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9051373003467</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>57.55023929614984</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389619</v>
       </c>
       <c r="C17" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966436</v>
       </c>
       <c r="D17" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117158</v>
       </c>
       <c r="E17" t="n">
         <v>118.8615799110771</v>
       </c>
       <c r="F17" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990543</v>
       </c>
       <c r="G17" t="n">
-        <v>139.3537407829925</v>
+        <v>139.3537407829926</v>
       </c>
       <c r="H17" t="n">
-        <v>51.23968003881652</v>
+        <v>51.23968003881657</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914098</v>
       </c>
       <c r="W17" t="n">
-        <v>86.93329805709797</v>
+        <v>86.93329805709789</v>
       </c>
       <c r="X17" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898451</v>
       </c>
       <c r="Y17" t="n">
-        <v>117.6301540860432</v>
+        <v>117.6301540860433</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>120.6689256389713</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.82520712046109</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>177.6149605755514</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H19" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.16445065136617</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.0186762889081</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.12980963648911</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R19" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>12.3270578114734</v>
+        <v>12.32705781147345</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>11.31855468389773</v>
+        <v>247.6727186249657</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389619</v>
       </c>
       <c r="C20" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966436</v>
       </c>
       <c r="D20" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117158</v>
       </c>
       <c r="E20" t="n">
         <v>118.8615799110771</v>
       </c>
       <c r="F20" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990543</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3537407829925</v>
+        <v>139.3537407829926</v>
       </c>
       <c r="H20" t="n">
-        <v>51.23968003881652</v>
+        <v>51.23968003881657</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914098</v>
       </c>
       <c r="W20" t="n">
-        <v>86.93329805709783</v>
+        <v>86.93329805709789</v>
       </c>
       <c r="X20" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898445</v>
       </c>
       <c r="Y20" t="n">
-        <v>117.6301540860432</v>
+        <v>117.6301540860433</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>58.9197703126096</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H21" t="n">
         <v>95.77124205704071</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.82520712046109</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>195.3094852818176</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7.254413165905886</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.12980963648911</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R22" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.3270578114734</v>
+        <v>12.32705781147345</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>80.32856717567442</v>
+        <v>11.31855468389779</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>101.5642587210253</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>64.26147546667644</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H24" t="n">
         <v>95.77124205704071</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.82520712046109</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3033405953505</v>
+        <v>188.5535309645364</v>
       </c>
       <c r="V25" t="n">
-        <v>29.32857753878444</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>11.31855468389779</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>289.108279482593</v>
+        <v>289.1082794825932</v>
       </c>
       <c r="C26" t="n">
-        <v>277.1195964402748</v>
+        <v>277.1195964402749</v>
       </c>
       <c r="D26" t="n">
-        <v>268.1009004848028</v>
+        <v>268.1009004848029</v>
       </c>
       <c r="E26" t="n">
-        <v>289.8430380547083</v>
+        <v>289.8430380547084</v>
       </c>
       <c r="F26" t="n">
-        <v>309.0148541426855</v>
+        <v>309.0148541426856</v>
       </c>
       <c r="G26" t="n">
-        <v>310.3351989266238</v>
+        <v>310.3351989266239</v>
       </c>
       <c r="H26" t="n">
-        <v>222.2211381824478</v>
+        <v>222.2211381824479</v>
       </c>
       <c r="I26" t="n">
-        <v>46.4644838304461</v>
+        <v>46.46448383044618</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718226</v>
+        <v>70.39487552718239</v>
       </c>
       <c r="T26" t="n">
-        <v>118.4374612367759</v>
+        <v>118.437461236776</v>
       </c>
       <c r="U26" t="n">
-        <v>151.2926244338213</v>
+        <v>151.2926244338214</v>
       </c>
       <c r="V26" t="n">
-        <v>232.6146567227722</v>
+        <v>232.6146567227723</v>
       </c>
       <c r="W26" t="n">
-        <v>257.9147562007291</v>
+        <v>257.9147562007292</v>
       </c>
       <c r="X26" t="n">
-        <v>277.2150144334757</v>
+        <v>277.2150144334758</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296746</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.72499035729014</v>
+        <v>80.72499035729025</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269062</v>
+        <v>66.92498520269073</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54634960026901</v>
+        <v>50.54634960026912</v>
       </c>
       <c r="E28" t="n">
-        <v>49.49409945604846</v>
+        <v>49.49409945604857</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423477</v>
+        <v>49.96102378423488</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750537</v>
+        <v>65.96079029750548</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33966129645901</v>
+        <v>54.33966129645913</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019772</v>
+        <v>33.49810771019784</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833758</v>
+        <v>34.6696072483377</v>
       </c>
       <c r="S28" t="n">
-        <v>105.7864520493392</v>
+        <v>105.7864520493393</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6776115777202</v>
+        <v>128.6776115777203</v>
       </c>
       <c r="U28" t="n">
-        <v>183.3085159551046</v>
+        <v>183.3085159551048</v>
       </c>
       <c r="V28" t="n">
-        <v>157.1331267569157</v>
+        <v>157.1331267569158</v>
       </c>
       <c r="W28" t="n">
-        <v>182.300012827529</v>
+        <v>182.3000128275291</v>
       </c>
       <c r="X28" t="n">
-        <v>127.9451148233321</v>
+        <v>127.9451148233322</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.8199825793998</v>
+        <v>118.8199825793999</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>222.2211381824478</v>
       </c>
       <c r="I29" t="n">
-        <v>46.4644838304461</v>
+        <v>46.46448383044607</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.39487552718226</v>
+        <v>70.39487552718225</v>
       </c>
       <c r="T29" t="n">
         <v>118.4374612367759</v>
       </c>
       <c r="U29" t="n">
-        <v>151.2926244338213</v>
+        <v>151.2926244338212</v>
       </c>
       <c r="V29" t="n">
         <v>232.6146567227722</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72499035729014</v>
+        <v>80.72499035729011</v>
       </c>
       <c r="C31" t="n">
-        <v>66.92498520269062</v>
+        <v>66.92498520269059</v>
       </c>
       <c r="D31" t="n">
-        <v>50.54634960026901</v>
+        <v>50.54634960026898</v>
       </c>
       <c r="E31" t="n">
-        <v>49.49409945604846</v>
+        <v>49.49409945604843</v>
       </c>
       <c r="F31" t="n">
-        <v>49.96102378423477</v>
+        <v>49.96102378423474</v>
       </c>
       <c r="G31" t="n">
-        <v>65.96079029750537</v>
+        <v>65.96079029750534</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33966129645903</v>
+        <v>54.33966129645898</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49810771019771</v>
+        <v>33.49810771019769</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66960724833758</v>
+        <v>34.66960724833756</v>
       </c>
       <c r="S31" t="n">
-        <v>105.7864520493392</v>
+        <v>105.7864520493391</v>
       </c>
       <c r="T31" t="n">
         <v>128.6776115777202</v>
@@ -3047,7 +3047,7 @@
         <v>222.2211381824478</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46448383044609</v>
+        <v>46.46448383044607</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718228</v>
+        <v>70.39487552718225</v>
       </c>
       <c r="T32" t="n">
         <v>118.4374612367759</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.72499035729014</v>
+        <v>80.72499035729012</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269062</v>
+        <v>66.92498520269061</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026901</v>
+        <v>50.546349600269</v>
       </c>
       <c r="E34" t="n">
-        <v>49.49409945604846</v>
+        <v>49.49409945604845</v>
       </c>
       <c r="F34" t="n">
-        <v>49.96102378423477</v>
+        <v>49.96102378423475</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96079029750537</v>
+        <v>65.96079029750535</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645903</v>
+        <v>54.33966129645898</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49810771019771</v>
+        <v>33.4981077101977</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833758</v>
+        <v>34.66960724833757</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7864520493392</v>
+        <v>105.7864520493391</v>
       </c>
       <c r="T34" t="n">
         <v>128.6776115777202</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.304922070038</v>
+        <v>210.3049220700379</v>
       </c>
       <c r="C35" t="n">
         <v>198.3162390277197</v>
       </c>
       <c r="D35" t="n">
-        <v>189.2975430722477</v>
+        <v>189.2975430722476</v>
       </c>
       <c r="E35" t="n">
         <v>211.0396806421532</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2114967301304</v>
+        <v>230.2114967301303</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5318415140687</v>
+        <v>231.5318415140686</v>
       </c>
       <c r="H35" t="n">
-        <v>143.4177807698927</v>
+        <v>143.4177807698926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422083</v>
+        <v>39.63410382422077</v>
       </c>
       <c r="U35" t="n">
-        <v>72.48926702126619</v>
+        <v>72.48926702126613</v>
       </c>
       <c r="V35" t="n">
-        <v>153.8112993102171</v>
+        <v>153.811299310217</v>
       </c>
       <c r="W35" t="n">
-        <v>179.111398788174</v>
+        <v>179.1113987881739</v>
       </c>
       <c r="X35" t="n">
         <v>198.4116570209206</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.8082548171194</v>
+        <v>209.8082548171193</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>95.77124205704071</v>
+        <v>39.39301321532144</v>
       </c>
       <c r="I36" t="n">
         <v>56.4074501722953</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.82520712046109</v>
       </c>
       <c r="S36" t="n">
-        <v>0.513804944763433</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T36" t="n">
         <v>185.4764132683503</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.921632944735052</v>
+        <v>1.921632944734995</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0366789746733</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.98309463678407</v>
+        <v>26.98309463678401</v>
       </c>
       <c r="T37" t="n">
-        <v>49.87425416516513</v>
+        <v>49.87425416516508</v>
       </c>
       <c r="U37" t="n">
-        <v>104.5051585425496</v>
+        <v>104.5051585425495</v>
       </c>
       <c r="V37" t="n">
-        <v>78.32976934436064</v>
+        <v>78.32976934436059</v>
       </c>
       <c r="W37" t="n">
-        <v>103.4966554149739</v>
+        <v>103.4966554149738</v>
       </c>
       <c r="X37" t="n">
-        <v>49.14175741077702</v>
+        <v>167.3358692704011</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.0166251668447</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>210.3049220700379</v>
       </c>
       <c r="C38" t="n">
-        <v>198.3162390277197</v>
+        <v>198.3162390277196</v>
       </c>
       <c r="D38" t="n">
-        <v>189.2975430722477</v>
+        <v>189.2975430722476</v>
       </c>
       <c r="E38" t="n">
-        <v>211.0396806421532</v>
+        <v>211.0396806421531</v>
       </c>
       <c r="F38" t="n">
-        <v>230.2114967301304</v>
+        <v>230.2114967301303</v>
       </c>
       <c r="G38" t="n">
-        <v>231.5318415140687</v>
+        <v>231.5318415140686</v>
       </c>
       <c r="H38" t="n">
-        <v>143.4177807698927</v>
+        <v>143.4177807698926</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.6341038242208</v>
+        <v>39.63410382422076</v>
       </c>
       <c r="U38" t="n">
-        <v>72.48926702126616</v>
+        <v>72.4892670212661</v>
       </c>
       <c r="V38" t="n">
-        <v>153.8112993102171</v>
+        <v>153.811299310217</v>
       </c>
       <c r="W38" t="n">
-        <v>179.111398788174</v>
+        <v>179.1113987881739</v>
       </c>
       <c r="X38" t="n">
-        <v>198.4116570209206</v>
+        <v>198.4116570209205</v>
       </c>
       <c r="Y38" t="n">
         <v>209.8082548171193</v>
@@ -3597,7 +3597,7 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>56.4074501722953</v>
@@ -3630,13 +3630,13 @@
         <v>38.82520712046109</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T39" t="n">
         <v>185.4764132683503</v>
       </c>
       <c r="U39" t="n">
-        <v>177.976867119266</v>
+        <v>128.5680103105184</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.921632944735023</v>
+        <v>1.921632944734966</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.3109566606254</v>
+        <v>26.98309463678398</v>
       </c>
       <c r="T40" t="n">
-        <v>49.87425416516511</v>
+        <v>49.87425416516505</v>
       </c>
       <c r="U40" t="n">
-        <v>104.5051585425495</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V40" t="n">
-        <v>78.32976934436061</v>
+        <v>196.5238812039849</v>
       </c>
       <c r="W40" t="n">
-        <v>103.4966554149739</v>
+        <v>103.4966554149738</v>
       </c>
       <c r="X40" t="n">
-        <v>49.14175741077699</v>
+        <v>49.14175741077693</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.01662516684468</v>
+        <v>40.01662516684462</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.7131640938349</v>
+        <v>210.7131640938347</v>
       </c>
       <c r="C41" t="n">
-        <v>198.7244810515166</v>
+        <v>198.7244810515165</v>
       </c>
       <c r="D41" t="n">
-        <v>189.7057850960446</v>
+        <v>189.7057850960445</v>
       </c>
       <c r="E41" t="n">
-        <v>211.4479226659502</v>
+        <v>211.44792266595</v>
       </c>
       <c r="F41" t="n">
-        <v>230.6197387539273</v>
+        <v>230.6197387539272</v>
       </c>
       <c r="G41" t="n">
-        <v>231.9400835378656</v>
+        <v>231.9400835378655</v>
       </c>
       <c r="H41" t="n">
-        <v>143.8260227936896</v>
+        <v>143.8260227936894</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.04234584801777</v>
+        <v>40.0423458480176</v>
       </c>
       <c r="U41" t="n">
-        <v>72.89750904506312</v>
+        <v>72.89750904506295</v>
       </c>
       <c r="V41" t="n">
-        <v>154.219541334014</v>
+        <v>154.2195413340139</v>
       </c>
       <c r="W41" t="n">
-        <v>179.5196408119709</v>
+        <v>179.5196408119708</v>
       </c>
       <c r="X41" t="n">
-        <v>198.8198990447175</v>
+        <v>198.8198990447174</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.2164968409163</v>
+        <v>210.2164968409161</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>56.4074501722953</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>12.81954461767079</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>145.180098865789</v>
+        <v>5.82095125412367</v>
       </c>
       <c r="T42" t="n">
         <v>185.4764132683503</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.329874968531982</v>
+        <v>2.329874968531811</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.2334253716056</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.3364176930463</v>
       </c>
       <c r="I43" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.391336660581</v>
+        <v>27.39133666058083</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896206</v>
+        <v>50.28249618896189</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9134005663465</v>
+        <v>104.9134005663463</v>
       </c>
       <c r="V43" t="n">
-        <v>78.73801136815757</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>103.9048974387708</v>
+        <v>103.9048974387707</v>
       </c>
       <c r="X43" t="n">
-        <v>49.54999943457395</v>
+        <v>49.54999943457378</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.42486719064163</v>
+        <v>40.42486719064146</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>189.7057850960446</v>
       </c>
       <c r="E44" t="n">
-        <v>211.4479226659502</v>
+        <v>211.4479226659501</v>
       </c>
       <c r="F44" t="n">
         <v>230.6197387539273</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>40.04234584801776</v>
+        <v>40.04234584801775</v>
       </c>
       <c r="U44" t="n">
-        <v>72.89750904506312</v>
+        <v>72.89750904506309</v>
       </c>
       <c r="V44" t="n">
         <v>154.219541334014</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.329874968531982</v>
+        <v>2.329874968531954</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>159.0619258334657</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R46" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.391336660581</v>
+        <v>27.39133666058097</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28249618896206</v>
+        <v>150.4891042455182</v>
       </c>
       <c r="U46" t="n">
         <v>104.9134005663465</v>
       </c>
       <c r="V46" t="n">
-        <v>78.73801136815757</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>103.9048974387708</v>
       </c>
       <c r="X46" t="n">
-        <v>49.54999943457395</v>
+        <v>49.54999943457392</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.42486719064163</v>
+        <v>40.42486719064161</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>869.0941249083221</v>
+        <v>419.2509940713561</v>
       </c>
       <c r="C11" t="n">
-        <v>660.2812755011579</v>
+        <v>419.2509940713561</v>
       </c>
       <c r="D11" t="n">
-        <v>660.2812755011579</v>
+        <v>419.2509940713561</v>
       </c>
       <c r="E11" t="n">
-        <v>660.2812755011579</v>
+        <v>419.2509940713561</v>
       </c>
       <c r="F11" t="n">
-        <v>419.2509940713565</v>
+        <v>419.2509940713561</v>
       </c>
       <c r="G11" t="n">
         <v>176.8870310416173</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0265863185276</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K11" t="n">
-        <v>438.1753122677225</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="L11" t="n">
-        <v>729.3240382169174</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="M11" t="n">
-        <v>1016.399322134524</v>
+        <v>142.9531442869392</v>
       </c>
       <c r="N11" t="n">
-        <v>1016.399322134524</v>
+        <v>434.1018702361342</v>
       </c>
       <c r="O11" t="n">
-        <v>1016.399322134524</v>
+        <v>725.2505961853293</v>
       </c>
       <c r="P11" t="n">
         <v>1016.399322134524</v>
       </c>
       <c r="Q11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.830624330491</v>
+        <v>1127.830624330492</v>
       </c>
       <c r="U11" t="n">
-        <v>1078.0033561268</v>
+        <v>1069.503801711959</v>
       </c>
       <c r="V11" t="n">
-        <v>1078.0033561268</v>
+        <v>1069.503801711959</v>
       </c>
       <c r="W11" t="n">
-        <v>1078.0033561268</v>
+        <v>1069.503801711959</v>
       </c>
       <c r="X11" t="n">
-        <v>869.0941249083221</v>
+        <v>860.5945704934804</v>
       </c>
       <c r="Y11" t="n">
-        <v>869.0941249083221</v>
+        <v>640.1736243293468</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.52716977367232</v>
+        <v>444.0876147767147</v>
       </c>
       <c r="C12" t="n">
-        <v>23.52716977367232</v>
+        <v>444.0876147767147</v>
       </c>
       <c r="D12" t="n">
-        <v>23.52716977367232</v>
+        <v>305.2489777669268</v>
       </c>
       <c r="E12" t="n">
-        <v>23.52716977367232</v>
+        <v>158.220967823798</v>
       </c>
       <c r="F12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J12" t="n">
-        <v>114.4548830157154</v>
+        <v>114.4548830157155</v>
       </c>
       <c r="K12" t="n">
         <v>396.3714466953012</v>
       </c>
       <c r="L12" t="n">
-        <v>687.5201726444961</v>
+        <v>687.5201726444963</v>
       </c>
       <c r="M12" t="n">
-        <v>885.209762734421</v>
+        <v>978.6688985936913</v>
       </c>
       <c r="N12" t="n">
-        <v>885.209762734421</v>
+        <v>978.6688985936913</v>
       </c>
       <c r="O12" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="P12" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="Q12" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R12" t="n">
-        <v>1137.141107753857</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S12" t="n">
-        <v>990.4945432429591</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="T12" t="n">
-        <v>803.1446308506861</v>
+        <v>989.6462255966863</v>
       </c>
       <c r="U12" t="n">
-        <v>584.671631562844</v>
+        <v>944.2941355688728</v>
       </c>
       <c r="V12" t="n">
-        <v>356.276009011178</v>
+        <v>889.0194222772352</v>
       </c>
       <c r="W12" t="n">
-        <v>114.960140244488</v>
+        <v>647.7035535105452</v>
       </c>
       <c r="X12" t="n">
-        <v>42.92758686406504</v>
+        <v>622.9074746483683</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.52716977367232</v>
+        <v>603.5070575579756</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.5361840123535</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="C13" t="n">
-        <v>175.5361840123535</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="D13" t="n">
-        <v>175.5361840123535</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="E13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K13" t="n">
-        <v>88.75452017135993</v>
+        <v>88.75452017135994</v>
       </c>
       <c r="L13" t="n">
         <v>229.8283602936762</v>
@@ -5230,19 +5230,19 @@
         <v>688.7664919614703</v>
       </c>
       <c r="U13" t="n">
-        <v>574.7123097110436</v>
+        <v>514.7782302544639</v>
       </c>
       <c r="V13" t="n">
-        <v>487.0979145294947</v>
+        <v>427.1638350729149</v>
       </c>
       <c r="W13" t="n">
-        <v>374.0624223069223</v>
+        <v>314.1283428503424</v>
       </c>
       <c r="X13" t="n">
-        <v>315.9308674623264</v>
+        <v>255.9967880057466</v>
       </c>
       <c r="Y13" t="n">
-        <v>267.016617914632</v>
+        <v>33.96162919802372</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>419.2509940713562</v>
+        <v>628.0638434785204</v>
       </c>
       <c r="C14" t="n">
         <v>419.2509940713562</v>
@@ -5270,43 +5270,43 @@
         <v>176.8870310416173</v>
       </c>
       <c r="H14" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I14" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J14" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K14" t="n">
-        <v>302.9123108360313</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="L14" t="n">
-        <v>594.0610367852262</v>
+        <v>314.6758957228674</v>
       </c>
       <c r="M14" t="n">
-        <v>885.209762734421</v>
+        <v>605.8246216720624</v>
       </c>
       <c r="N14" t="n">
-        <v>1176.358488683616</v>
+        <v>896.9733476212575</v>
       </c>
       <c r="O14" t="n">
-        <v>1176.358488683616</v>
+        <v>896.9733476212575</v>
       </c>
       <c r="P14" t="n">
-        <v>1176.358488683616</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T14" t="n">
-        <v>1127.830624330491</v>
+        <v>1127.830624330492</v>
       </c>
       <c r="U14" t="n">
         <v>1046.115726444998</v>
@@ -5315,13 +5315,13 @@
         <v>1046.115726444998</v>
       </c>
       <c r="W14" t="n">
-        <v>856.701705562627</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="X14" t="n">
-        <v>647.7924743441488</v>
+        <v>848.4847896426541</v>
       </c>
       <c r="Y14" t="n">
-        <v>427.3715281800152</v>
+        <v>628.0638434785204</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.52716977367232</v>
+        <v>734.1885321819889</v>
       </c>
       <c r="C15" t="n">
-        <v>23.52716977367232</v>
+        <v>572.4848594229436</v>
       </c>
       <c r="D15" t="n">
-        <v>23.52716977367232</v>
+        <v>433.6462224131556</v>
       </c>
       <c r="E15" t="n">
-        <v>23.52716977367232</v>
+        <v>286.6182124700268</v>
       </c>
       <c r="F15" t="n">
-        <v>23.52716977367232</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="G15" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H15" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I15" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J15" t="n">
-        <v>23.52716977367232</v>
+        <v>114.4548830157155</v>
       </c>
       <c r="K15" t="n">
-        <v>305.4437334532581</v>
+        <v>396.3714466953012</v>
       </c>
       <c r="L15" t="n">
-        <v>596.592459402453</v>
+        <v>396.3714466953012</v>
       </c>
       <c r="M15" t="n">
-        <v>596.592459402453</v>
+        <v>396.3714466953012</v>
       </c>
       <c r="N15" t="n">
-        <v>885.209762734421</v>
+        <v>687.5201726444963</v>
       </c>
       <c r="O15" t="n">
-        <v>885.209762734421</v>
+        <v>687.5201726444963</v>
       </c>
       <c r="P15" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R15" t="n">
-        <v>1137.141107753857</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S15" t="n">
-        <v>1137.141107753857</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="T15" t="n">
-        <v>949.7911953615841</v>
+        <v>949.7911953615848</v>
       </c>
       <c r="U15" t="n">
-        <v>731.318196073742</v>
+        <v>901.8547009328577</v>
       </c>
       <c r="V15" t="n">
-        <v>641.5798865342213</v>
+        <v>846.5799876412201</v>
       </c>
       <c r="W15" t="n">
-        <v>400.2640177675313</v>
+        <v>778.3850281345585</v>
       </c>
       <c r="X15" t="n">
-        <v>375.4679389053543</v>
+        <v>753.5889492723816</v>
       </c>
       <c r="Y15" t="n">
-        <v>182.9466125549332</v>
+        <v>734.1885321819889</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>256.5821584902806</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="C16" t="n">
-        <v>256.5821584902806</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="D16" t="n">
-        <v>256.5821584902806</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="E16" t="n">
-        <v>104.5731442515994</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F16" t="n">
-        <v>104.5731442515994</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K16" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135994</v>
       </c>
       <c r="L16" t="n">
         <v>229.8283602936762</v>
@@ -5455,31 +5455,31 @@
         <v>783.387009711667</v>
       </c>
       <c r="Q16" t="n">
-        <v>783.387009711667</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="R16" t="n">
-        <v>783.387009711667</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="S16" t="n">
-        <v>747.6379425175692</v>
+        <v>732.3553065211155</v>
       </c>
       <c r="T16" t="n">
-        <v>688.7664919614703</v>
+        <v>673.4838559650166</v>
       </c>
       <c r="U16" t="n">
-        <v>574.7123097110436</v>
+        <v>559.4296737145899</v>
       </c>
       <c r="V16" t="n">
-        <v>487.0979145294947</v>
+        <v>427.1638350729148</v>
       </c>
       <c r="W16" t="n">
-        <v>374.0624223069223</v>
+        <v>141.007433590314</v>
       </c>
       <c r="X16" t="n">
-        <v>315.9308674623264</v>
+        <v>82.87587874571818</v>
       </c>
       <c r="Y16" t="n">
-        <v>267.016617914632</v>
+        <v>33.96162919802372</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.8463388340321</v>
+        <v>680.8463388340315</v>
       </c>
       <c r="C17" t="n">
-        <v>573.6360981303517</v>
+        <v>573.6360981303511</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210876</v>
+        <v>475.5356513210869</v>
       </c>
       <c r="E17" t="n">
-        <v>355.4734493907067</v>
+        <v>355.473449390706</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0457766643893</v>
+        <v>216.0457766643885</v>
       </c>
       <c r="G17" t="n">
-        <v>75.28442233813345</v>
+        <v>75.28442233813352</v>
       </c>
       <c r="H17" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I17" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J17" t="n">
-        <v>23.52716977367232</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="K17" t="n">
-        <v>314.6758957228672</v>
+        <v>438.1753122677227</v>
       </c>
       <c r="L17" t="n">
-        <v>605.8246216720621</v>
+        <v>729.3240382169178</v>
       </c>
       <c r="M17" t="n">
-        <v>896.9733476212571</v>
+        <v>885.2097627344215</v>
       </c>
       <c r="N17" t="n">
-        <v>1176.358488683616</v>
+        <v>885.2097627344215</v>
       </c>
       <c r="O17" t="n">
-        <v>1176.358488683616</v>
+        <v>885.2097627344215</v>
       </c>
       <c r="P17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="Q17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="U17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="V17" t="n">
-        <v>1114.102732543069</v>
+        <v>1114.10273254307</v>
       </c>
       <c r="W17" t="n">
         <v>1026.291320364183</v>
       </c>
       <c r="X17" t="n">
-        <v>918.9846978491887</v>
+        <v>918.9846978491881</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.1663603885389</v>
+        <v>800.1663603885384</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>824.4177195519337</v>
+        <v>605.79128753576</v>
       </c>
       <c r="C18" t="n">
-        <v>662.7140467928884</v>
+        <v>444.0876147767147</v>
       </c>
       <c r="D18" t="n">
-        <v>523.8754097831005</v>
+        <v>305.2489777669268</v>
       </c>
       <c r="E18" t="n">
-        <v>376.8473998399717</v>
+        <v>158.220967823798</v>
       </c>
       <c r="F18" t="n">
-        <v>242.1536017898461</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G18" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H18" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I18" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J18" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K18" t="n">
-        <v>302.9123108360313</v>
+        <v>103.6976892906812</v>
       </c>
       <c r="L18" t="n">
-        <v>594.0610367852262</v>
+        <v>394.8464152398763</v>
       </c>
       <c r="M18" t="n">
-        <v>885.209762734421</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="N18" t="n">
-        <v>1176.358488683616</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="O18" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382664</v>
       </c>
       <c r="P18" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382664</v>
       </c>
       <c r="Q18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R18" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S18" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="T18" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="U18" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="V18" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="W18" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="X18" t="n">
-        <v>1176.358488683616</v>
+        <v>957.7320566674422</v>
       </c>
       <c r="Y18" t="n">
-        <v>983.8371623331947</v>
+        <v>765.210730317021</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>398.3151605096178</v>
+        <v>368.4435572252915</v>
       </c>
       <c r="C19" t="n">
-        <v>398.3151605096178</v>
+        <v>368.4435572252915</v>
       </c>
       <c r="D19" t="n">
-        <v>245.2432673373805</v>
+        <v>368.4435572252915</v>
       </c>
       <c r="E19" t="n">
-        <v>245.2432673373805</v>
+        <v>368.4435572252915</v>
       </c>
       <c r="F19" t="n">
-        <v>245.2432673373805</v>
+        <v>368.4435572252915</v>
       </c>
       <c r="G19" t="n">
-        <v>245.2432673373805</v>
+        <v>199.8015219346337</v>
       </c>
       <c r="H19" t="n">
-        <v>88.3397461891937</v>
+        <v>199.8015219346337</v>
       </c>
       <c r="I19" t="n">
-        <v>23.52716977367232</v>
+        <v>63.95007511600375</v>
       </c>
       <c r="J19" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K19" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135994</v>
       </c>
       <c r="L19" t="n">
         <v>229.8283602936762</v>
@@ -5698,25 +5698,25 @@
         <v>631.0695940297755</v>
       </c>
       <c r="S19" t="n">
-        <v>422.1996175756492</v>
+        <v>631.0695940297755</v>
       </c>
       <c r="T19" t="n">
-        <v>422.1996175756492</v>
+        <v>631.0695940297755</v>
       </c>
       <c r="U19" t="n">
-        <v>409.7480440287064</v>
+        <v>618.6180204828327</v>
       </c>
       <c r="V19" t="n">
-        <v>409.7480440287064</v>
+        <v>618.6180204828327</v>
       </c>
       <c r="W19" t="n">
-        <v>398.3151605096178</v>
+        <v>368.4435572252915</v>
       </c>
       <c r="X19" t="n">
-        <v>398.3151605096178</v>
+        <v>368.4435572252915</v>
       </c>
       <c r="Y19" t="n">
-        <v>398.3151605096178</v>
+        <v>368.4435572252915</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.8463388340319</v>
+        <v>680.8463388340323</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303516</v>
+        <v>573.6360981303517</v>
       </c>
       <c r="D20" t="n">
-        <v>475.5356513210874</v>
+        <v>475.5356513210877</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907065</v>
+        <v>355.4734493907068</v>
       </c>
       <c r="F20" t="n">
-        <v>216.045776664389</v>
+        <v>216.0457766643893</v>
       </c>
       <c r="G20" t="n">
-        <v>75.28442233813345</v>
+        <v>75.28442233813352</v>
       </c>
       <c r="H20" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I20" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J20" t="n">
-        <v>23.52716977367232</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="K20" t="n">
-        <v>314.6758957228672</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="L20" t="n">
-        <v>605.8246216720621</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="M20" t="n">
-        <v>896.9733476212571</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="N20" t="n">
-        <v>1176.358488683616</v>
+        <v>434.1018702361342</v>
       </c>
       <c r="O20" t="n">
-        <v>1176.358488683616</v>
+        <v>725.2505961853293</v>
       </c>
       <c r="P20" t="n">
-        <v>1176.358488683616</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="U20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="V20" t="n">
         <v>1114.10273254307</v>
@@ -5792,10 +5792,10 @@
         <v>1026.291320364183</v>
       </c>
       <c r="X20" t="n">
-        <v>918.9846978491885</v>
+        <v>918.984697849189</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885388</v>
+        <v>800.1663603885393</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>819.0220577801495</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="C21" t="n">
-        <v>657.3183850211042</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="D21" t="n">
-        <v>518.4797480113162</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="E21" t="n">
-        <v>371.4517380681875</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="F21" t="n">
-        <v>236.7579400180618</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="G21" t="n">
-        <v>177.2430205103753</v>
+        <v>177.2430205103754</v>
       </c>
       <c r="H21" t="n">
-        <v>80.5043921699302</v>
+        <v>80.50439216993021</v>
       </c>
       <c r="I21" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J21" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K21" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="L21" t="n">
-        <v>114.4548830157154</v>
+        <v>103.6976892906812</v>
       </c>
       <c r="M21" t="n">
-        <v>114.4548830157154</v>
+        <v>394.8464152398763</v>
       </c>
       <c r="N21" t="n">
-        <v>394.846415239876</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="O21" t="n">
-        <v>685.9951411890709</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="P21" t="n">
-        <v>977.1438671382657</v>
+        <v>977.1438671382664</v>
       </c>
       <c r="Q21" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R21" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S21" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="T21" t="n">
-        <v>1176.358488683616</v>
+        <v>949.7911953615848</v>
       </c>
       <c r="U21" t="n">
-        <v>1176.358488683616</v>
+        <v>731.3181960737427</v>
       </c>
       <c r="V21" t="n">
-        <v>1176.358488683616</v>
+        <v>502.9225735220766</v>
       </c>
       <c r="W21" t="n">
-        <v>1176.358488683616</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="X21" t="n">
-        <v>978.4415005614104</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="Y21" t="n">
-        <v>978.4415005614104</v>
+        <v>305.6402651566042</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>328.6080771845908</v>
+        <v>522.1847578414588</v>
       </c>
       <c r="C22" t="n">
-        <v>328.6080771845908</v>
+        <v>352.5687883031391</v>
       </c>
       <c r="D22" t="n">
-        <v>175.5361840123535</v>
+        <v>199.4968951309018</v>
       </c>
       <c r="E22" t="n">
-        <v>23.52716977367232</v>
+        <v>199.4968951309018</v>
       </c>
       <c r="F22" t="n">
-        <v>23.52716977367232</v>
+        <v>199.4968951309018</v>
       </c>
       <c r="G22" t="n">
-        <v>23.52716977367232</v>
+        <v>30.85485984024393</v>
       </c>
       <c r="H22" t="n">
-        <v>23.52716977367232</v>
+        <v>30.85485984024393</v>
       </c>
       <c r="I22" t="n">
-        <v>23.52716977367232</v>
+        <v>30.85485984024393</v>
       </c>
       <c r="J22" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K22" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135994</v>
       </c>
       <c r="L22" t="n">
         <v>229.8283602936762</v>
@@ -5932,28 +5932,28 @@
         <v>768.1043737152133</v>
       </c>
       <c r="R22" t="n">
-        <v>631.0695940297755</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="S22" t="n">
-        <v>422.1996175756492</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="T22" t="n">
-        <v>422.1996175756492</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="U22" t="n">
-        <v>409.7480440287064</v>
+        <v>755.6528001682705</v>
       </c>
       <c r="V22" t="n">
-        <v>409.7480440287064</v>
+        <v>755.6528001682705</v>
       </c>
       <c r="W22" t="n">
-        <v>328.6080771845908</v>
+        <v>744.2199166491818</v>
       </c>
       <c r="X22" t="n">
-        <v>328.6080771845908</v>
+        <v>744.2199166491818</v>
       </c>
       <c r="Y22" t="n">
-        <v>328.6080771845908</v>
+        <v>522.1847578414588</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>680.8463388340318</v>
+        <v>680.8463388340317</v>
       </c>
       <c r="C23" t="n">
-        <v>573.6360981303512</v>
+        <v>573.6360981303513</v>
       </c>
       <c r="D23" t="n">
-        <v>475.535651321087</v>
+        <v>475.5356513210871</v>
       </c>
       <c r="E23" t="n">
-        <v>355.473449390706</v>
+        <v>355.4734493907062</v>
       </c>
       <c r="F23" t="n">
-        <v>216.0457766643888</v>
+        <v>216.0457766643887</v>
       </c>
       <c r="G23" t="n">
-        <v>75.28442233813351</v>
+        <v>75.28442233813352</v>
       </c>
       <c r="H23" t="n">
         <v>23.52716977367233</v>
@@ -5987,34 +5987,34 @@
         <v>23.52716977367233</v>
       </c>
       <c r="J23" t="n">
-        <v>23.52716977367233</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="K23" t="n">
-        <v>23.52716977367233</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="L23" t="n">
-        <v>314.6758957228673</v>
+        <v>438.1753122677227</v>
       </c>
       <c r="M23" t="n">
-        <v>314.6758957228673</v>
+        <v>438.1753122677227</v>
       </c>
       <c r="N23" t="n">
-        <v>605.8246216720623</v>
+        <v>438.1753122677227</v>
       </c>
       <c r="O23" t="n">
-        <v>896.9733476212573</v>
+        <v>725.2505961853293</v>
       </c>
       <c r="P23" t="n">
         <v>1016.399322134524</v>
       </c>
       <c r="Q23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T23" t="n">
         <v>1176.358488683616</v>
@@ -6029,10 +6029,10 @@
         <v>1026.291320364183</v>
       </c>
       <c r="X23" t="n">
-        <v>918.9846978491886</v>
+        <v>918.9846978491885</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.1663603885388</v>
+        <v>800.1663603885387</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>824.4177195519342</v>
+        <v>887.9043829186918</v>
       </c>
       <c r="C24" t="n">
-        <v>662.7140467928889</v>
+        <v>726.2007101596465</v>
       </c>
       <c r="D24" t="n">
-        <v>523.875409783101</v>
+        <v>587.3620731498586</v>
       </c>
       <c r="E24" t="n">
-        <v>376.8473998399722</v>
+        <v>440.3340632067299</v>
       </c>
       <c r="F24" t="n">
-        <v>242.1536017898465</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="G24" t="n">
         <v>177.2430205103754</v>
@@ -6066,52 +6066,52 @@
         <v>23.52716977367233</v>
       </c>
       <c r="J24" t="n">
-        <v>23.52716977367233</v>
+        <v>114.4548830157155</v>
       </c>
       <c r="K24" t="n">
-        <v>23.52716977367233</v>
+        <v>396.3714466953012</v>
       </c>
       <c r="L24" t="n">
-        <v>302.9123108360312</v>
+        <v>687.5201726444963</v>
       </c>
       <c r="M24" t="n">
-        <v>594.0610367852262</v>
+        <v>885.2097627344215</v>
       </c>
       <c r="N24" t="n">
-        <v>885.2097627344212</v>
+        <v>885.2097627344215</v>
       </c>
       <c r="O24" t="n">
-        <v>1176.358488683616</v>
+        <v>885.2097627344215</v>
       </c>
       <c r="P24" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="Q24" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R24" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S24" t="n">
-        <v>1176.358488683616</v>
+        <v>990.4945432429598</v>
       </c>
       <c r="T24" t="n">
-        <v>1176.358488683616</v>
+        <v>990.4945432429598</v>
       </c>
       <c r="U24" t="n">
-        <v>1176.358488683616</v>
+        <v>990.4945432429598</v>
       </c>
       <c r="V24" t="n">
-        <v>1176.358488683616</v>
+        <v>990.4945432429598</v>
       </c>
       <c r="W24" t="n">
-        <v>1176.358488683616</v>
+        <v>990.4945432429598</v>
       </c>
       <c r="X24" t="n">
-        <v>1176.358488683616</v>
+        <v>990.4945432429598</v>
       </c>
       <c r="Y24" t="n">
-        <v>983.8371623331951</v>
+        <v>990.4945432429598</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.4306909218591</v>
+        <v>344.1782193030114</v>
       </c>
       <c r="C25" t="n">
-        <v>180.4306909218591</v>
+        <v>344.1782193030114</v>
       </c>
       <c r="D25" t="n">
-        <v>180.4306909218591</v>
+        <v>344.1782193030114</v>
       </c>
       <c r="E25" t="n">
-        <v>180.4306909218591</v>
+        <v>192.1692050643302</v>
       </c>
       <c r="F25" t="n">
-        <v>180.4306909218591</v>
+        <v>192.1692050643302</v>
       </c>
       <c r="G25" t="n">
-        <v>180.4306909218591</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H25" t="n">
         <v>23.52716977367233</v>
@@ -6148,7 +6148,7 @@
         <v>23.52716977367233</v>
       </c>
       <c r="K25" t="n">
-        <v>88.75452017135993</v>
+        <v>88.75452017135994</v>
       </c>
       <c r="L25" t="n">
         <v>229.8283602936762</v>
@@ -6166,31 +6166,31 @@
         <v>783.387009711667</v>
       </c>
       <c r="Q25" t="n">
-        <v>783.387009711667</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="R25" t="n">
-        <v>783.387009711667</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="S25" t="n">
-        <v>783.387009711667</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="T25" t="n">
-        <v>783.387009711667</v>
+        <v>768.1043737152133</v>
       </c>
       <c r="U25" t="n">
-        <v>496.211918201212</v>
+        <v>577.646261629823</v>
       </c>
       <c r="V25" t="n">
-        <v>466.58709240446</v>
+        <v>577.646261629823</v>
       </c>
       <c r="W25" t="n">
-        <v>180.4306909218591</v>
+        <v>566.2133781107343</v>
       </c>
       <c r="X25" t="n">
-        <v>180.4306909218591</v>
+        <v>566.2133781107343</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.4306909218591</v>
+        <v>344.1782193030114</v>
       </c>
     </row>
     <row r="26">
@@ -6209,49 +6209,49 @@
         <v>1260.044226634461</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246547</v>
+        <v>967.2734811246543</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1372648189117</v>
+        <v>655.137264818911</v>
       </c>
       <c r="G26" t="n">
-        <v>341.667366913231</v>
+        <v>341.6673669132306</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2015707693439</v>
+        <v>117.201570769344</v>
       </c>
       <c r="I26" t="n">
-        <v>70.26774871838826</v>
+        <v>70.26774871838828</v>
       </c>
       <c r="J26" t="n">
-        <v>293.7520416570869</v>
+        <v>293.7520416570868</v>
       </c>
       <c r="K26" t="n">
-        <v>711.0637474076113</v>
+        <v>711.0637474076111</v>
       </c>
       <c r="L26" t="n">
-        <v>1254.690622475249</v>
+        <v>1254.690622475248</v>
       </c>
       <c r="M26" t="n">
         <v>1854.462361416258</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.050345910121</v>
+        <v>2341.065469516277</v>
       </c>
       <c r="O26" t="n">
-        <v>2848.292873127647</v>
+        <v>2848.292873127646</v>
       </c>
       <c r="P26" t="n">
-        <v>3204.17658497322</v>
+        <v>3263.692364751735</v>
       </c>
       <c r="Q26" t="n">
-        <v>3464.120627916155</v>
+        <v>3464.120627916156</v>
       </c>
       <c r="R26" t="n">
-        <v>3513.387435919413</v>
+        <v>3513.387435919414</v>
       </c>
       <c r="S26" t="n">
-        <v>3442.281501043471</v>
+        <v>3442.281501043472</v>
       </c>
       <c r="T26" t="n">
         <v>3322.647701814405</v>
@@ -6263,7 +6263,7 @@
         <v>2934.862569332997</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.342613574684</v>
+        <v>2674.342613574685</v>
       </c>
       <c r="X26" t="n">
         <v>2394.327447480265</v>
@@ -6300,28 +6300,28 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I27" t="n">
-        <v>70.26774871838826</v>
+        <v>70.26774871838828</v>
       </c>
       <c r="J27" t="n">
-        <v>161.1954619604314</v>
+        <v>70.26774871838828</v>
       </c>
       <c r="K27" t="n">
-        <v>443.1120256400171</v>
+        <v>113.0471667867984</v>
       </c>
       <c r="L27" t="n">
-        <v>879.4271125317764</v>
+        <v>549.3622536785576</v>
       </c>
       <c r="M27" t="n">
-        <v>917.4432737811849</v>
+        <v>1116.657895326535</v>
       </c>
       <c r="N27" t="n">
-        <v>1513.148446029986</v>
+        <v>1712.363067575336</v>
       </c>
       <c r="O27" t="n">
-        <v>1982.594066618682</v>
+        <v>2181.808688164032</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.686446011073</v>
+        <v>2545.901067556423</v>
       </c>
       <c r="Q27" t="n">
         <v>2545.901067556423</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7374632107166</v>
+        <v>444.7374632107174</v>
       </c>
       <c r="C28" t="n">
-        <v>377.1364680564836</v>
+        <v>377.1364680564843</v>
       </c>
       <c r="D28" t="n">
-        <v>326.079549268333</v>
+        <v>326.0795492683336</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0855094137386</v>
+        <v>276.0855094137391</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6198288236025</v>
+        <v>225.6198288236029</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170317</v>
       </c>
       <c r="H28" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529315</v>
       </c>
       <c r="I28" t="n">
-        <v>70.26774871838826</v>
+        <v>70.26774871838828</v>
       </c>
       <c r="J28" t="n">
-        <v>130.6341355862127</v>
+        <v>130.6341355862126</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777437</v>
+        <v>295.8463623777435</v>
       </c>
       <c r="L28" t="n">
-        <v>536.9050788939039</v>
+        <v>536.905078893903</v>
       </c>
       <c r="M28" t="n">
-        <v>797.5499867382318</v>
+        <v>797.5499867382307</v>
       </c>
       <c r="N28" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596752</v>
       </c>
       <c r="O28" t="n">
-        <v>1294.530111954951</v>
+        <v>1294.530111954953</v>
       </c>
       <c r="P28" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887271</v>
       </c>
       <c r="Q28" t="n">
-        <v>1575.409598740988</v>
+        <v>1575.40959874099</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439638</v>
       </c>
       <c r="S28" t="n">
-        <v>1433.534791369597</v>
+        <v>1433.534791369599</v>
       </c>
       <c r="T28" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937558</v>
       </c>
       <c r="U28" t="n">
-        <v>1118.397288811188</v>
+        <v>1118.397288811189</v>
       </c>
       <c r="V28" t="n">
-        <v>959.6769587536974</v>
+        <v>959.6769587536986</v>
       </c>
       <c r="W28" t="n">
-        <v>775.5355316551833</v>
+        <v>775.5355316551844</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2980419346458</v>
+        <v>646.2980419346468</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2778575110096</v>
+        <v>526.2778575110106</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306255</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.853217023149</v>
+        <v>1530.853217023151</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246532</v>
+        <v>967.2734811246546</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1372648189104</v>
+        <v>655.1372648189117</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6673669132297</v>
+        <v>341.6673669132311</v>
       </c>
       <c r="H29" t="n">
         <v>117.2015707693439</v>
       </c>
       <c r="I29" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J29" t="n">
         <v>293.7520416570869</v>
@@ -6476,37 +6476,37 @@
         <v>2441.050345910121</v>
       </c>
       <c r="O29" t="n">
-        <v>2888.761969742972</v>
+        <v>2848.292873127647</v>
       </c>
       <c r="P29" t="n">
-        <v>3204.176584973217</v>
+        <v>3204.176584973219</v>
       </c>
       <c r="Q29" t="n">
-        <v>3464.120627916153</v>
+        <v>3464.120627916154</v>
       </c>
       <c r="R29" t="n">
-        <v>3513.387435919411</v>
+        <v>3513.387435919412</v>
       </c>
       <c r="S29" t="n">
-        <v>3442.281501043469</v>
+        <v>3442.281501043471</v>
       </c>
       <c r="T29" t="n">
-        <v>3322.647701814402</v>
+        <v>3322.647701814404</v>
       </c>
       <c r="U29" t="n">
-        <v>3169.826869052967</v>
+        <v>3169.826869052969</v>
       </c>
       <c r="V29" t="n">
-        <v>2934.862569332995</v>
+        <v>2934.862569332996</v>
       </c>
       <c r="W29" t="n">
-        <v>2674.342613574682</v>
+        <v>2674.342613574684</v>
       </c>
       <c r="X29" t="n">
-        <v>2394.327447480262</v>
+        <v>2394.327447480264</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.800566440187</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I30" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J30" t="n">
-        <v>161.1954619604313</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="K30" t="n">
-        <v>443.1120256400171</v>
+        <v>113.0471667867984</v>
       </c>
       <c r="L30" t="n">
-        <v>879.4271125317763</v>
+        <v>549.3622536785576</v>
       </c>
       <c r="M30" t="n">
-        <v>917.4432737811849</v>
+        <v>1116.657895326535</v>
       </c>
       <c r="N30" t="n">
-        <v>1513.148446029986</v>
+        <v>1712.363067575336</v>
       </c>
       <c r="O30" t="n">
-        <v>1982.594066618682</v>
+        <v>2181.808688164032</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.686446011073</v>
+        <v>2545.901067556423</v>
       </c>
       <c r="Q30" t="n">
         <v>2545.901067556423</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7374632107156</v>
+        <v>444.7374632107165</v>
       </c>
       <c r="C31" t="n">
-        <v>377.1364680564827</v>
+        <v>377.1364680564835</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0795492683321</v>
+        <v>326.079549268333</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0855094137377</v>
+        <v>276.0855094137386</v>
       </c>
       <c r="F31" t="n">
-        <v>225.6198288236018</v>
+        <v>225.6198288236025</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9927679170307</v>
+        <v>158.9927679170314</v>
       </c>
       <c r="H31" t="n">
-        <v>104.1042211529306</v>
+        <v>104.1042211529314</v>
       </c>
       <c r="I31" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J31" t="n">
-        <v>130.6341355862126</v>
+        <v>130.6341355862127</v>
       </c>
       <c r="K31" t="n">
         <v>295.8463623777437</v>
@@ -6637,34 +6637,34 @@
         <v>1294.53011195495</v>
       </c>
       <c r="P31" t="n">
-        <v>1490.403233887267</v>
+        <v>1490.403233887268</v>
       </c>
       <c r="Q31" t="n">
         <v>1575.409598740987</v>
       </c>
       <c r="R31" t="n">
-        <v>1540.389793439635</v>
+        <v>1540.389793439636</v>
       </c>
       <c r="S31" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369597</v>
       </c>
       <c r="T31" t="n">
-        <v>1303.557405937555</v>
+        <v>1303.557405937556</v>
       </c>
       <c r="U31" t="n">
-        <v>1118.397288811187</v>
+        <v>1118.397288811188</v>
       </c>
       <c r="V31" t="n">
-        <v>959.6769587536965</v>
+        <v>959.6769587536971</v>
       </c>
       <c r="W31" t="n">
-        <v>775.5355316551824</v>
+        <v>775.535531655183</v>
       </c>
       <c r="X31" t="n">
-        <v>646.2980419346449</v>
+        <v>646.2980419346457</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.2778575110087</v>
+        <v>526.2778575110095</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>117.2015707693439</v>
       </c>
       <c r="I32" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J32" t="n">
-        <v>293.7520416570869</v>
+        <v>193.7671652632435</v>
       </c>
       <c r="K32" t="n">
-        <v>611.0788710137679</v>
+        <v>611.078871013768</v>
       </c>
       <c r="L32" t="n">
         <v>1154.705746081405</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.961705243898</v>
+        <v>1754.477485022415</v>
       </c>
       <c r="N32" t="n">
-        <v>2281.549689737761</v>
+        <v>2341.065469516278</v>
       </c>
       <c r="O32" t="n">
         <v>2788.77709334913</v>
@@ -6774,19 +6774,19 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I33" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J33" t="n">
-        <v>161.1954619604313</v>
+        <v>161.1954619604314</v>
       </c>
       <c r="K33" t="n">
         <v>443.1120256400171</v>
       </c>
       <c r="L33" t="n">
-        <v>879.4271125317763</v>
+        <v>879.4271125317764</v>
       </c>
       <c r="M33" t="n">
-        <v>917.4432737811849</v>
+        <v>1446.722754179754</v>
       </c>
       <c r="N33" t="n">
         <v>1513.148446029986</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7374632107168</v>
+        <v>444.7374632107163</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1364680564838</v>
+        <v>377.1364680564834</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0795492683333</v>
+        <v>326.0795492683329</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0855094137389</v>
+        <v>276.0855094137385</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6198288236027</v>
+        <v>225.6198288236024</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9927679170316</v>
+        <v>158.9927679170313</v>
       </c>
       <c r="H34" t="n">
         <v>104.1042211529314</v>
       </c>
       <c r="I34" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J34" t="n">
         <v>130.6341355862128</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8463623777443</v>
+        <v>295.8463623777438</v>
       </c>
       <c r="L34" t="n">
-        <v>536.9050788939039</v>
+        <v>536.9050788939037</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382318</v>
+        <v>797.5499867382315</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596754</v>
+        <v>1057.609215596753</v>
       </c>
       <c r="O34" t="n">
         <v>1294.530111954951</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.403233887269</v>
+        <v>1490.403233887268</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.409598740988</v>
+        <v>1575.409598740987</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.389793439637</v>
+        <v>1540.389793439636</v>
       </c>
       <c r="S34" t="n">
         <v>1433.534791369597</v>
@@ -6892,16 +6892,16 @@
         <v>1118.397288811188</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6769587536976</v>
+        <v>959.6769587536971</v>
       </c>
       <c r="W34" t="n">
-        <v>775.5355316551835</v>
+        <v>775.535531655183</v>
       </c>
       <c r="X34" t="n">
-        <v>646.298041934646</v>
+        <v>646.2980419346455</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2778575110099</v>
+        <v>526.2778575110094</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.71490395099</v>
+        <v>1262.714903950991</v>
       </c>
       <c r="C35" t="n">
-        <v>1062.395470589657</v>
+        <v>1062.395470589658</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227406</v>
+        <v>871.1858311227415</v>
       </c>
       <c r="E35" t="n">
-        <v>658.0144365347071</v>
+        <v>658.014436534708</v>
       </c>
       <c r="F35" t="n">
-        <v>425.477571150737</v>
+        <v>425.477571150738</v>
       </c>
       <c r="G35" t="n">
         <v>191.6070241668297</v>
       </c>
       <c r="H35" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="I35" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="J35" t="n">
-        <v>46.74057894471589</v>
+        <v>170.2399954895712</v>
       </c>
       <c r="K35" t="n">
-        <v>184.3398354670442</v>
+        <v>487.5668248462522</v>
       </c>
       <c r="L35" t="n">
-        <v>627.9818341408381</v>
+        <v>931.2088235200462</v>
       </c>
       <c r="M35" t="n">
-        <v>1127.768696688004</v>
+        <v>1430.995686067212</v>
       </c>
       <c r="N35" t="n">
-        <v>1614.371804788024</v>
+        <v>1917.598794167232</v>
       </c>
       <c r="O35" t="n">
-        <v>2021.614332005549</v>
+        <v>2324.841321384758</v>
       </c>
       <c r="P35" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="T35" t="n">
         <v>2296.994498928501</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.773017088838</v>
+        <v>2223.773017088839</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.408068290639</v>
+        <v>2068.40806829064</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.487463454099</v>
+        <v>1887.4874634541</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281452</v>
+        <v>1687.071648281453</v>
       </c>
       <c r="Y35" t="n">
-        <v>1475.14411816315</v>
+        <v>1475.144118163151</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>911.1177920897354</v>
+        <v>725.77284154278</v>
       </c>
       <c r="C36" t="n">
-        <v>749.4141193306901</v>
+        <v>564.0691687837348</v>
       </c>
       <c r="D36" t="n">
-        <v>610.5754823209022</v>
+        <v>425.2305317739468</v>
       </c>
       <c r="E36" t="n">
-        <v>463.5474723777735</v>
+        <v>278.2025218308181</v>
       </c>
       <c r="F36" t="n">
-        <v>328.8536743276478</v>
+        <v>143.5087237806924</v>
       </c>
       <c r="G36" t="n">
-        <v>200.4564296814189</v>
+        <v>143.5087237806924</v>
       </c>
       <c r="H36" t="n">
         <v>103.7178013409738</v>
       </c>
       <c r="I36" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="J36" t="n">
-        <v>46.74057894471589</v>
+        <v>137.668292186759</v>
       </c>
       <c r="K36" t="n">
-        <v>328.6571426243016</v>
+        <v>137.668292186759</v>
       </c>
       <c r="L36" t="n">
-        <v>764.9722295160609</v>
+        <v>158.5660196205217</v>
       </c>
       <c r="M36" t="n">
-        <v>925.0762828138485</v>
+        <v>725.8616612684989</v>
       </c>
       <c r="N36" t="n">
-        <v>1503.490947254708</v>
+        <v>1304.276325709358</v>
       </c>
       <c r="O36" t="n">
-        <v>1972.936567843404</v>
+        <v>1773.721946298054</v>
       </c>
       <c r="P36" t="n">
-        <v>2337.028947235794</v>
+        <v>2137.814325690445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R36" t="n">
-        <v>2337.028947235794</v>
+        <v>2297.811566306036</v>
       </c>
       <c r="S36" t="n">
-        <v>2336.509952342094</v>
+        <v>2151.165001795138</v>
       </c>
       <c r="T36" t="n">
-        <v>2149.160039949821</v>
+        <v>1963.815089402865</v>
       </c>
       <c r="U36" t="n">
-        <v>1930.687040661979</v>
+        <v>1745.342090115023</v>
       </c>
       <c r="V36" t="n">
-        <v>1702.291418110313</v>
+        <v>1516.946467563357</v>
       </c>
       <c r="W36" t="n">
-        <v>1460.975549343623</v>
+        <v>1275.630598796668</v>
       </c>
       <c r="X36" t="n">
-        <v>1263.058561221417</v>
+        <v>1077.713610674462</v>
       </c>
       <c r="Y36" t="n">
-        <v>1070.537234870996</v>
+        <v>885.192284324041</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>347.7428960279731</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="C37" t="n">
-        <v>347.7428960279731</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="D37" t="n">
-        <v>347.7428960279731</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="E37" t="n">
-        <v>347.7428960279731</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="F37" t="n">
-        <v>347.7428960279731</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="G37" t="n">
-        <v>179.1008607373152</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="H37" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="I37" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="J37" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="K37" t="n">
         <v>111.9679293424035</v>
@@ -7105,7 +7105,7 @@
         <v>413.7018009152042</v>
       </c>
       <c r="N37" t="n">
-        <v>573.7761533798822</v>
+        <v>573.7761533798823</v>
       </c>
       <c r="O37" t="n">
         <v>710.7121733442364</v>
@@ -7120,25 +7120,25 @@
         <v>806.6004188827106</v>
       </c>
       <c r="S37" t="n">
-        <v>779.3447677344438</v>
+        <v>779.344767734444</v>
       </c>
       <c r="T37" t="n">
-        <v>728.966733224176</v>
+        <v>728.9667332241762</v>
       </c>
       <c r="U37" t="n">
-        <v>623.4059670195804</v>
+        <v>623.4059670195808</v>
       </c>
       <c r="V37" t="n">
-        <v>544.2849878838626</v>
+        <v>544.284987883863</v>
       </c>
       <c r="W37" t="n">
-        <v>439.7429117071213</v>
+        <v>439.7429117071217</v>
       </c>
       <c r="X37" t="n">
-        <v>390.1047729083567</v>
+        <v>270.716781130959</v>
       </c>
       <c r="Y37" t="n">
-        <v>349.6839394064933</v>
+        <v>48.6816223232361</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.71490395099</v>
+        <v>1262.714903950991</v>
       </c>
       <c r="C38" t="n">
-        <v>1062.395470589657</v>
+        <v>1062.395470589658</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227406</v>
+        <v>871.1858311227409</v>
       </c>
       <c r="E38" t="n">
-        <v>658.0144365347071</v>
+        <v>658.0144365347073</v>
       </c>
       <c r="F38" t="n">
-        <v>425.477571150737</v>
+        <v>425.4775711507373</v>
       </c>
       <c r="G38" t="n">
         <v>191.6070241668297</v>
       </c>
       <c r="H38" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="I38" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="J38" t="n">
-        <v>170.2399954895711</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="K38" t="n">
-        <v>487.5668248462521</v>
+        <v>364.0674083013969</v>
       </c>
       <c r="L38" t="n">
-        <v>931.2088235200461</v>
+        <v>807.7094069751909</v>
       </c>
       <c r="M38" t="n">
-        <v>1430.995686067212</v>
+        <v>967.8095301389126</v>
       </c>
       <c r="N38" t="n">
         <v>1454.412638238932</v>
       </c>
       <c r="O38" t="n">
-        <v>1861.655165456457</v>
+        <v>1861.655165456458</v>
       </c>
       <c r="P38" t="n">
-        <v>2177.069780686702</v>
+        <v>2177.069780686703</v>
       </c>
       <c r="Q38" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R38" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="S38" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="T38" t="n">
-        <v>2296.994498928501</v>
+        <v>2296.9944989285</v>
       </c>
       <c r="U38" t="n">
         <v>2223.773017088838</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>911.1177920897354</v>
+        <v>814.3791637492903</v>
       </c>
       <c r="C39" t="n">
-        <v>749.4141193306901</v>
+        <v>652.6754909902451</v>
       </c>
       <c r="D39" t="n">
-        <v>610.5754823209022</v>
+        <v>513.8368539804571</v>
       </c>
       <c r="E39" t="n">
-        <v>463.5474723777735</v>
+        <v>366.8088440373283</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8536743276478</v>
+        <v>232.1150459872026</v>
       </c>
       <c r="G39" t="n">
-        <v>200.4564296814189</v>
+        <v>103.7178013409738</v>
       </c>
       <c r="H39" t="n">
         <v>103.7178013409738</v>
       </c>
       <c r="I39" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="J39" t="n">
         <v>137.668292186759</v>
       </c>
       <c r="K39" t="n">
-        <v>137.668292186759</v>
+        <v>419.5848558663448</v>
       </c>
       <c r="L39" t="n">
-        <v>573.9833790785183</v>
+        <v>855.8999427581041</v>
       </c>
       <c r="M39" t="n">
-        <v>1141.279020726495</v>
+        <v>1195.307281857195</v>
       </c>
       <c r="N39" t="n">
-        <v>1304.276325709358</v>
+        <v>1773.721946298054</v>
       </c>
       <c r="O39" t="n">
         <v>1773.721946298054</v>
@@ -7272,31 +7272,31 @@
         <v>2137.814325690445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R39" t="n">
         <v>2297.811566306036</v>
       </c>
       <c r="S39" t="n">
-        <v>2297.811566306036</v>
+        <v>2151.165001795138</v>
       </c>
       <c r="T39" t="n">
-        <v>2110.461653913763</v>
+        <v>1963.815089402865</v>
       </c>
       <c r="U39" t="n">
-        <v>1930.687040661979</v>
+        <v>1833.948412321534</v>
       </c>
       <c r="V39" t="n">
-        <v>1702.291418110313</v>
+        <v>1605.552789769868</v>
       </c>
       <c r="W39" t="n">
-        <v>1460.975549343623</v>
+        <v>1364.236921003178</v>
       </c>
       <c r="X39" t="n">
-        <v>1263.058561221417</v>
+        <v>1166.319932880972</v>
       </c>
       <c r="Y39" t="n">
-        <v>1070.537234870996</v>
+        <v>973.7986065305513</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="C40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="D40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="E40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="F40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="G40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="H40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="I40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="J40" t="n">
-        <v>46.74057894471589</v>
+        <v>46.7405789447159</v>
       </c>
       <c r="K40" t="n">
         <v>111.9679293424035</v>
@@ -7342,7 +7342,7 @@
         <v>413.7018009152042</v>
       </c>
       <c r="N40" t="n">
-        <v>573.7761533798822</v>
+        <v>573.7761533798823</v>
       </c>
       <c r="O40" t="n">
         <v>710.7121733442364</v>
@@ -7354,28 +7354,28 @@
         <v>806.6004188827106</v>
       </c>
       <c r="R40" t="n">
-        <v>669.5656391972727</v>
+        <v>806.6004188827106</v>
       </c>
       <c r="S40" t="n">
-        <v>478.3424506511865</v>
+        <v>779.344767734444</v>
       </c>
       <c r="T40" t="n">
-        <v>427.9644161409187</v>
+        <v>728.9667332241762</v>
       </c>
       <c r="U40" t="n">
-        <v>322.4036499363232</v>
+        <v>441.7916417137212</v>
       </c>
       <c r="V40" t="n">
-        <v>243.2826708006054</v>
+        <v>243.2826708006051</v>
       </c>
       <c r="W40" t="n">
-        <v>138.7405946238641</v>
+        <v>138.7405946238639</v>
       </c>
       <c r="X40" t="n">
-        <v>89.10245582509944</v>
+        <v>89.10245582509933</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.68162232323612</v>
+        <v>48.68162232323607</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1265.29850117436</v>
+        <v>1265.298501174361</v>
       </c>
       <c r="C41" t="n">
-        <v>1064.566702132424</v>
+        <v>1064.566702132425</v>
       </c>
       <c r="D41" t="n">
-        <v>872.9446969849043</v>
+        <v>872.9446969849051</v>
       </c>
       <c r="E41" t="n">
-        <v>659.3609367162678</v>
+        <v>659.3609367162687</v>
       </c>
       <c r="F41" t="n">
-        <v>426.4117056516948</v>
+        <v>426.4117056516959</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1287929871845</v>
+        <v>192.1287929871843</v>
       </c>
       <c r="H41" t="n">
         <v>46.84998208446769</v>
@@ -7412,22 +7412,22 @@
         <v>170.3493986293229</v>
       </c>
       <c r="K41" t="n">
-        <v>487.6762279860039</v>
+        <v>473.492824579336</v>
       </c>
       <c r="L41" t="n">
-        <v>931.3182266597979</v>
+        <v>473.492824579336</v>
       </c>
       <c r="M41" t="n">
-        <v>1431.105089206964</v>
+        <v>973.2796871265023</v>
       </c>
       <c r="N41" t="n">
-        <v>1917.708197306983</v>
+        <v>1459.882795226521</v>
       </c>
       <c r="O41" t="n">
-        <v>2324.950724524509</v>
+        <v>1867.125322444047</v>
       </c>
       <c r="P41" t="n">
-        <v>2342.499104223385</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="Q41" t="n">
         <v>2342.499104223385</v>
@@ -7454,7 +7454,7 @@
         <v>1690.479976866028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1478.140081067122</v>
+        <v>1478.140081067123</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>757.5113444927842</v>
+        <v>911.2271952294872</v>
       </c>
       <c r="C42" t="n">
-        <v>595.807671733739</v>
+        <v>749.5235224704419</v>
       </c>
       <c r="D42" t="n">
-        <v>456.969034723951</v>
+        <v>610.684885460654</v>
       </c>
       <c r="E42" t="n">
-        <v>309.9410247808222</v>
+        <v>463.6568755175252</v>
       </c>
       <c r="F42" t="n">
-        <v>175.2472267306966</v>
+        <v>328.9630774673996</v>
       </c>
       <c r="G42" t="n">
-        <v>46.84998208446769</v>
+        <v>200.5658328211707</v>
       </c>
       <c r="H42" t="n">
-        <v>46.84998208446769</v>
+        <v>103.8272044807256</v>
       </c>
       <c r="I42" t="n">
         <v>46.84998208446769</v>
@@ -7491,19 +7491,19 @@
         <v>46.84998208446769</v>
       </c>
       <c r="K42" t="n">
-        <v>46.84998208446769</v>
+        <v>328.7665457640534</v>
       </c>
       <c r="L42" t="n">
-        <v>483.1650689762269</v>
+        <v>765.0816326558127</v>
       </c>
       <c r="M42" t="n">
-        <v>1050.460710624204</v>
+        <v>929.1925759470101</v>
       </c>
       <c r="N42" t="n">
-        <v>1630.229238919492</v>
+        <v>1508.961104242298</v>
       </c>
       <c r="O42" t="n">
-        <v>2099.674859508188</v>
+        <v>1978.406724830994</v>
       </c>
       <c r="P42" t="n">
         <v>2342.499104223385</v>
@@ -7512,28 +7512,28 @@
         <v>2342.499104223385</v>
       </c>
       <c r="R42" t="n">
-        <v>2329.55006925604</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="S42" t="n">
-        <v>2182.903504745143</v>
+        <v>2336.619355481846</v>
       </c>
       <c r="T42" t="n">
-        <v>1995.553592352869</v>
+        <v>2149.269443089573</v>
       </c>
       <c r="U42" t="n">
-        <v>1777.080593065027</v>
+        <v>1930.79644380173</v>
       </c>
       <c r="V42" t="n">
-        <v>1548.684970513361</v>
+        <v>1702.400821250064</v>
       </c>
       <c r="W42" t="n">
-        <v>1307.369101746672</v>
+        <v>1461.084952483375</v>
       </c>
       <c r="X42" t="n">
-        <v>1109.452113624466</v>
+        <v>1263.167964361169</v>
       </c>
       <c r="Y42" t="n">
-        <v>916.9307872740451</v>
+        <v>1070.646638010748</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>344.5533737229013</v>
+        <v>163.3514140976458</v>
       </c>
       <c r="C43" t="n">
-        <v>344.5533737229013</v>
+        <v>163.3514140976458</v>
       </c>
       <c r="D43" t="n">
-        <v>344.5533737229013</v>
+        <v>163.3514140976458</v>
       </c>
       <c r="E43" t="n">
-        <v>344.5533737229013</v>
+        <v>163.3514140976458</v>
       </c>
       <c r="F43" t="n">
-        <v>344.5533737229013</v>
+        <v>163.3514140976458</v>
       </c>
       <c r="G43" t="n">
-        <v>182.7014289030976</v>
+        <v>163.3514140976458</v>
       </c>
       <c r="H43" t="n">
-        <v>182.7014289030976</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I43" t="n">
         <v>46.84998208446769</v>
@@ -7594,25 +7594,25 @@
         <v>806.7098220224624</v>
       </c>
       <c r="S43" t="n">
-        <v>779.0418051935927</v>
+        <v>779.0418051935928</v>
       </c>
       <c r="T43" t="n">
-        <v>728.251405002722</v>
+        <v>728.2514050027222</v>
       </c>
       <c r="U43" t="n">
-        <v>622.2782731175234</v>
+        <v>622.2782731175239</v>
       </c>
       <c r="V43" t="n">
-        <v>542.7449283012027</v>
+        <v>361.5429686759465</v>
       </c>
       <c r="W43" t="n">
-        <v>437.7904864438584</v>
+        <v>256.5885268186024</v>
       </c>
       <c r="X43" t="n">
-        <v>387.7399819644908</v>
+        <v>206.538022339235</v>
       </c>
       <c r="Y43" t="n">
-        <v>346.9067827820245</v>
+        <v>165.7048231567688</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1064.566702132424</v>
       </c>
       <c r="D44" t="n">
-        <v>872.9446969849043</v>
+        <v>872.944696984905</v>
       </c>
       <c r="E44" t="n">
-        <v>659.3609367162678</v>
+        <v>659.3609367162682</v>
       </c>
       <c r="F44" t="n">
-        <v>426.4117056516948</v>
+        <v>426.4117056516951</v>
       </c>
       <c r="G44" t="n">
         <v>192.1287929871845</v>
@@ -7649,22 +7649,22 @@
         <v>170.3493986293229</v>
       </c>
       <c r="K44" t="n">
-        <v>487.6762279860039</v>
+        <v>487.676227986004</v>
       </c>
       <c r="L44" t="n">
-        <v>931.3182266597979</v>
+        <v>931.318226659798</v>
       </c>
       <c r="M44" t="n">
         <v>1431.105089206964</v>
       </c>
       <c r="N44" t="n">
-        <v>1459.882795226522</v>
+        <v>1917.708197306983</v>
       </c>
       <c r="O44" t="n">
-        <v>1867.125322444047</v>
+        <v>2324.950724524509</v>
       </c>
       <c r="P44" t="n">
-        <v>2182.539937674293</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="Q44" t="n">
         <v>2342.499104223385</v>
@@ -7679,10 +7679,10 @@
         <v>2302.052290235488</v>
       </c>
       <c r="U44" t="n">
-        <v>2228.418442715222</v>
+        <v>2228.418442715223</v>
       </c>
       <c r="V44" t="n">
-        <v>2072.64112823642</v>
+        <v>2072.641128236421</v>
       </c>
       <c r="W44" t="n">
         <v>1891.308157719278</v>
@@ -7725,25 +7725,25 @@
         <v>46.84998208446769</v>
       </c>
       <c r="J45" t="n">
-        <v>46.84998208446769</v>
+        <v>137.7776953265108</v>
       </c>
       <c r="K45" t="n">
-        <v>328.7665457640534</v>
+        <v>419.6942590060966</v>
       </c>
       <c r="L45" t="n">
-        <v>765.0816326558127</v>
+        <v>856.0093458978558</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1925759470101</v>
+        <v>856.0093458978558</v>
       </c>
       <c r="N45" t="n">
-        <v>1508.961104242298</v>
+        <v>1309.746482696948</v>
       </c>
       <c r="O45" t="n">
-        <v>1978.406724830994</v>
+        <v>1779.192103285644</v>
       </c>
       <c r="P45" t="n">
-        <v>2342.499104223385</v>
+        <v>2143.284482678035</v>
       </c>
       <c r="Q45" t="n">
         <v>2342.499104223385</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>207.5185940374634</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="C46" t="n">
-        <v>207.5185940374634</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="D46" t="n">
-        <v>207.5185940374634</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="E46" t="n">
-        <v>207.5185940374634</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="F46" t="n">
-        <v>207.5185940374634</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="G46" t="n">
         <v>46.84998208446769</v>
@@ -7825,31 +7825,31 @@
         <v>806.7098220224624</v>
       </c>
       <c r="Q46" t="n">
-        <v>806.7098220224624</v>
+        <v>791.4271860260087</v>
       </c>
       <c r="R46" t="n">
-        <v>669.6750423370245</v>
+        <v>791.4271860260087</v>
       </c>
       <c r="S46" t="n">
-        <v>642.0070255081548</v>
+        <v>763.759169197139</v>
       </c>
       <c r="T46" t="n">
-        <v>591.2166253172841</v>
+        <v>611.7499729895449</v>
       </c>
       <c r="U46" t="n">
-        <v>485.2434934320856</v>
+        <v>505.7768411043464</v>
       </c>
       <c r="V46" t="n">
-        <v>405.7101486157648</v>
+        <v>245.041536662769</v>
       </c>
       <c r="W46" t="n">
-        <v>300.7557067584205</v>
+        <v>140.0870948054248</v>
       </c>
       <c r="X46" t="n">
-        <v>250.7052022790529</v>
+        <v>90.03659032605715</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.8720030965866</v>
+        <v>49.20339114359088</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485223</v>
       </c>
       <c r="K11" t="n">
-        <v>394.9465076480837</v>
+        <v>100.8568854771797</v>
       </c>
       <c r="L11" t="n">
-        <v>388.9259701028593</v>
+        <v>94.83634793195527</v>
       </c>
       <c r="M11" t="n">
-        <v>369.5074131067833</v>
+        <v>200.1646763347233</v>
       </c>
       <c r="N11" t="n">
-        <v>77.03271072545897</v>
+        <v>371.1223328963631</v>
       </c>
       <c r="O11" t="n">
-        <v>83.68414754305792</v>
+        <v>377.773769713962</v>
       </c>
       <c r="P11" t="n">
-        <v>99.73769917823537</v>
+        <v>393.8273213491395</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8772,16 +8772,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>335.4597610737248</v>
+        <v>335.459761073725</v>
       </c>
       <c r="M12" t="n">
-        <v>232.0771368567653</v>
+        <v>326.4803043913817</v>
       </c>
       <c r="N12" t="n">
         <v>21.42269043570921</v>
       </c>
       <c r="O12" t="n">
-        <v>331.923141686515</v>
+        <v>237.5199741518992</v>
       </c>
       <c r="P12" t="n">
         <v>46.23151903758407</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07871432485224</v>
+        <v>95.07871432485223</v>
       </c>
       <c r="K14" t="n">
-        <v>383.0640986714818</v>
+        <v>100.8568854771797</v>
       </c>
       <c r="L14" t="n">
-        <v>388.9259701028593</v>
+        <v>388.9259701028594</v>
       </c>
       <c r="M14" t="n">
-        <v>373.622001017479</v>
+        <v>373.6220010174791</v>
       </c>
       <c r="N14" t="n">
-        <v>371.122332896363</v>
+        <v>371.1223328963631</v>
       </c>
       <c r="O14" t="n">
-        <v>83.68414754305795</v>
+        <v>83.68414754305792</v>
       </c>
       <c r="P14" t="n">
-        <v>99.7376991782354</v>
+        <v>220.3699966663837</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>72.07217095056875</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>335.4597610737249</v>
+        <v>41.3701389028209</v>
       </c>
       <c r="M15" t="n">
-        <v>32.39068222047756</v>
+        <v>32.39068222047753</v>
       </c>
       <c r="N15" t="n">
-        <v>312.9553200639598</v>
+        <v>315.5123126066134</v>
       </c>
       <c r="O15" t="n">
-        <v>37.83351951561113</v>
+        <v>37.8335195156111</v>
       </c>
       <c r="P15" t="n">
-        <v>340.321141208488</v>
+        <v>338.7807053949276</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.87358360675523</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.07871432485224</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>394.9465076480838</v>
+        <v>394.9465076480839</v>
       </c>
       <c r="L17" t="n">
-        <v>388.9259701028593</v>
+        <v>388.9259701028594</v>
       </c>
       <c r="M17" t="n">
-        <v>373.622001017479</v>
+        <v>236.9927066420333</v>
       </c>
       <c r="N17" t="n">
-        <v>359.2399239197608</v>
+        <v>77.03271072545897</v>
       </c>
       <c r="O17" t="n">
-        <v>83.68414754305795</v>
+        <v>83.68414754305792</v>
       </c>
       <c r="P17" t="n">
-        <v>99.7376991782354</v>
+        <v>393.8273213491395</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.4345721517224</v>
+        <v>114.4345721517223</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>72.07217095056875</v>
+        <v>72.07217095056873</v>
       </c>
       <c r="K18" t="n">
-        <v>341.2478155736989</v>
+        <v>140.0209251238503</v>
       </c>
       <c r="L18" t="n">
-        <v>335.4597610737249</v>
+        <v>335.459761073725</v>
       </c>
       <c r="M18" t="n">
-        <v>326.4803043913815</v>
+        <v>326.4803043913817</v>
       </c>
       <c r="N18" t="n">
-        <v>315.5123126066132</v>
+        <v>21.42269043570921</v>
       </c>
       <c r="O18" t="n">
-        <v>37.83351951561113</v>
+        <v>331.9231416865152</v>
       </c>
       <c r="P18" t="n">
-        <v>46.23151903758409</v>
+        <v>46.23151903758407</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.87358360675523</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07871432485224</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>394.9465076480838</v>
+        <v>100.8568854771797</v>
       </c>
       <c r="L20" t="n">
-        <v>388.9259701028593</v>
+        <v>94.83634793195527</v>
       </c>
       <c r="M20" t="n">
-        <v>373.622001017479</v>
+        <v>79.53237884657494</v>
       </c>
       <c r="N20" t="n">
-        <v>359.2399239197608</v>
+        <v>367.0077449856677</v>
       </c>
       <c r="O20" t="n">
-        <v>83.68414754305795</v>
+        <v>377.773769713962</v>
       </c>
       <c r="P20" t="n">
-        <v>99.7376991782354</v>
+        <v>393.8273213491395</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,25 +9477,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056873</v>
       </c>
       <c r="K21" t="n">
-        <v>59.04060237939691</v>
+        <v>59.04060237939689</v>
       </c>
       <c r="L21" t="n">
-        <v>41.37013890282093</v>
+        <v>122.3504616472743</v>
       </c>
       <c r="M21" t="n">
-        <v>32.39068222047756</v>
+        <v>326.4803043913817</v>
       </c>
       <c r="N21" t="n">
-        <v>304.6464603591037</v>
+        <v>315.5123126066134</v>
       </c>
       <c r="O21" t="n">
-        <v>331.9231416865151</v>
+        <v>37.8335195156111</v>
       </c>
       <c r="P21" t="n">
-        <v>340.321141208488</v>
+        <v>340.3211412084882</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07871432485224</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>100.8568854771798</v>
+        <v>100.8568854771797</v>
       </c>
       <c r="L23" t="n">
         <v>388.9259701028594</v>
       </c>
       <c r="M23" t="n">
-        <v>79.53237884657499</v>
+        <v>79.53237884657494</v>
       </c>
       <c r="N23" t="n">
-        <v>371.1223328963631</v>
+        <v>77.03271072545897</v>
       </c>
       <c r="O23" t="n">
-        <v>377.773769713962</v>
+        <v>373.6591818032666</v>
       </c>
       <c r="P23" t="n">
-        <v>220.3699966663837</v>
+        <v>393.8273213491395</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>72.07217095056875</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>59.04060237939691</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>323.5773520971228</v>
+        <v>335.459761073725</v>
       </c>
       <c r="M24" t="n">
-        <v>326.4803043913817</v>
+        <v>232.0771368567656</v>
       </c>
       <c r="N24" t="n">
-        <v>315.5123126066133</v>
+        <v>21.42269043570921</v>
       </c>
       <c r="O24" t="n">
-        <v>331.9231416865152</v>
+        <v>37.8335195156111</v>
       </c>
       <c r="P24" t="n">
-        <v>46.23151903758409</v>
+        <v>340.3211412084882</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.87358360675523</v>
+        <v>71.87358360675522</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056873</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>102.2521357818314</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>70.79084509866793</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675522</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056873</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>102.2521357818314</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>70.79084509866804</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675523</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>70.79084509866804</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>88.51934887028739</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.07871432485224</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>239.8460334795316</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>112.0484323611014</v>
       </c>
       <c r="Q35" t="n">
-        <v>114.4345721517224</v>
+        <v>114.4345721517223</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>72.07217095056875</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939689</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>62.47895449248018</v>
       </c>
       <c r="M36" t="n">
-        <v>194.1119481778388</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>605.679927244658</v>
+        <v>605.6799272446578</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.87358360675523</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485223</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10829,10 +10829,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>241.2496749715464</v>
       </c>
       <c r="N38" t="n">
-        <v>100.6861977675997</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10902,19 +10902,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>59.04060237939691</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>375.2263782801651</v>
       </c>
       <c r="N39" t="n">
-        <v>186.0664328426408</v>
+        <v>605.6799272446578</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>37.8335195156111</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11060,10 +11060,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>407.0623662347687</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>94.83634793195527</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11075,10 +11075,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>117.4633352377057</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,28 +11136,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.07217095056875</v>
+        <v>72.07217095056873</v>
       </c>
       <c r="K42" t="n">
-        <v>59.04060237939691</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>198.1593118075457</v>
       </c>
       <c r="N42" t="n">
-        <v>607.0474664915554</v>
+        <v>607.0474664915553</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>291.5085339014195</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.87358360675523</v>
+        <v>71.87358360675522</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11306,16 +11306,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>106.1011006442041</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>117.4633352377052</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517223</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>72.07217095056875</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>198.1593118075457</v>
+        <v>32.39068222047753</v>
       </c>
       <c r="N45" t="n">
-        <v>607.0474664915554</v>
+        <v>479.7430306368123</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.87358360675523</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7134039554108</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D11" t="n">
         <v>197.7060249576205</v>
@@ -23267,7 +23267,7 @@
         <v>219.4481625275261</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>31.56875338498519</v>
+        <v>23.15419451429103</v>
       </c>
       <c r="V11" t="n">
         <v>162.2197811955899</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.2167367024922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>210.6740751878384</v>
+        <v>218.7134039554108</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>197.7060249576205</v>
@@ -23555,10 +23555,10 @@
         <v>162.2197811955899</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11.16551147197314</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>999660.3114691509</v>
+        <v>999660.3114691513</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>999660.3114691512</v>
+        <v>999660.3114691513</v>
       </c>
     </row>
     <row r="7">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>344644.4841782868</v>
+      </c>
+      <c r="C2" t="n">
         <v>344644.4841782869</v>
-      </c>
-      <c r="C2" t="n">
-        <v>344644.4841782868</v>
       </c>
       <c r="D2" t="n">
         <v>344644.4841782869</v>
       </c>
       <c r="E2" t="n">
-        <v>301179.059153895</v>
+        <v>301179.0591538951</v>
       </c>
       <c r="F2" t="n">
-        <v>301179.0591538951</v>
+        <v>301179.0591538952</v>
       </c>
       <c r="G2" t="n">
         <v>345430.8272223815</v>
       </c>
       <c r="H2" t="n">
-        <v>345430.8272223815</v>
+        <v>345430.8272223816</v>
       </c>
       <c r="I2" t="n">
+        <v>345430.8272223817</v>
+      </c>
+      <c r="J2" t="n">
         <v>345430.8272223814</v>
       </c>
-      <c r="J2" t="n">
-        <v>345430.8272223825</v>
-      </c>
       <c r="K2" t="n">
-        <v>345430.8272223825</v>
+        <v>345430.8272223824</v>
       </c>
       <c r="L2" t="n">
-        <v>345430.8272223824</v>
+        <v>345430.8272223826</v>
       </c>
       <c r="M2" t="n">
         <v>345430.8272223814</v>
@@ -26350,10 +26350,10 @@
         <v>345430.8272223814</v>
       </c>
       <c r="O2" t="n">
-        <v>345430.8272223814</v>
+        <v>345430.8272223817</v>
       </c>
       <c r="P2" t="n">
-        <v>345430.8272223816</v>
+        <v>345430.8272223815</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347410.988042947</v>
+        <v>347410.9880429471</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80469.2660931592</v>
+        <v>80469.26609315915</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.2660931592</v>
+        <v>80469.26609315914</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.68593004407</v>
+        <v>63042.68593004411</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>329.099687305139</v>
+        <v>329.0996873051116</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>358899.80321999</v>
       </c>
       <c r="K4" t="n">
-        <v>358899.8032199899</v>
+        <v>358899.80321999</v>
       </c>
       <c r="L4" t="n">
         <v>358899.80321999</v>
@@ -26451,7 +26451,7 @@
         <v>360570.8158019182</v>
       </c>
       <c r="N4" t="n">
-        <v>360570.8158019182</v>
+        <v>360570.8158019183</v>
       </c>
       <c r="O4" t="n">
         <v>360532.5601904276</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35612.93854501297</v>
+        <v>35612.93854501298</v>
       </c>
       <c r="F5" t="n">
-        <v>35612.93854501297</v>
+        <v>35612.93854501298</v>
       </c>
       <c r="G5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899523</v>
       </c>
       <c r="H5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899523</v>
       </c>
       <c r="I5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899523</v>
       </c>
       <c r="J5" t="n">
-        <v>65217.7517523024</v>
+        <v>65217.75175230241</v>
       </c>
       <c r="K5" t="n">
-        <v>65217.75175230236</v>
+        <v>65217.75175230239</v>
       </c>
       <c r="L5" t="n">
-        <v>65217.75175230236</v>
+        <v>65217.75175230239</v>
       </c>
       <c r="M5" t="n">
-        <v>53962.02217862749</v>
+        <v>53962.02217862751</v>
       </c>
       <c r="N5" t="n">
-        <v>53962.0221786275</v>
+        <v>53962.02217862751</v>
       </c>
       <c r="O5" t="n">
-        <v>54010.84806614028</v>
+        <v>54010.84806614029</v>
       </c>
       <c r="P5" t="n">
-        <v>54010.84806614028</v>
+        <v>54010.84806614029</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-113276.7672889793</v>
+        <v>-113281.1358614465</v>
       </c>
       <c r="C6" t="n">
-        <v>-113276.7672889793</v>
+        <v>-113281.1358614464</v>
       </c>
       <c r="D6" t="n">
-        <v>-113276.7672889792</v>
+        <v>-113281.1358614464</v>
       </c>
       <c r="E6" t="n">
-        <v>-394405.1749783054</v>
+        <v>-394651.0181342413</v>
       </c>
       <c r="F6" t="n">
-        <v>-46994.18693535828</v>
+        <v>-47240.03009129415</v>
       </c>
       <c r="G6" t="n">
-        <v>-147795.5700388391</v>
+        <v>-147795.570038839</v>
       </c>
       <c r="H6" t="n">
-        <v>-67326.30394567981</v>
+        <v>-67326.30394567977</v>
       </c>
       <c r="I6" t="n">
-        <v>-67326.30394567993</v>
+        <v>-67326.30394567965</v>
       </c>
       <c r="J6" t="n">
-        <v>-231880.7218365881</v>
+        <v>-231880.7218365892</v>
       </c>
       <c r="K6" t="n">
-        <v>-78686.72774990965</v>
+        <v>-78686.72774990996</v>
       </c>
       <c r="L6" t="n">
-        <v>-159155.9938430692</v>
+        <v>-159155.993843069</v>
       </c>
       <c r="M6" t="n">
-        <v>-132144.6966882083</v>
+        <v>-132144.6966882084</v>
       </c>
       <c r="N6" t="n">
-        <v>-69102.01075816428</v>
+        <v>-69102.01075816435</v>
       </c>
       <c r="O6" t="n">
-        <v>-69441.6807214916</v>
+        <v>-69441.68072149131</v>
       </c>
       <c r="P6" t="n">
-        <v>-69112.58103418627</v>
+        <v>-69112.58103418633</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>271.9762827838771</v>
       </c>
       <c r="J2" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="K2" t="n">
         <v>100.9948246402459</v>
@@ -26719,13 +26719,13 @@
         <v>179.798182052801</v>
       </c>
       <c r="N2" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="O2" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="P2" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
     <row r="3">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="F4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="G4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="H4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="I4" t="n">
         <v>294.0896221709041</v>
       </c>
       <c r="J4" t="n">
-        <v>878.3468589798532</v>
+        <v>878.3468589798534</v>
       </c>
       <c r="K4" t="n">
-        <v>878.3468589798526</v>
+        <v>878.346858979853</v>
       </c>
       <c r="L4" t="n">
-        <v>878.3468589798526</v>
+        <v>878.346858979853</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2572368089486</v>
+        <v>584.2572368089487</v>
       </c>
       <c r="N4" t="n">
-        <v>584.2572368089486</v>
+        <v>584.2572368089487</v>
       </c>
       <c r="O4" t="n">
         <v>585.6247760558462</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.586582616449</v>
+        <v>100.5865826164489</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4082420237969586</v>
+        <v>0.4082420237968373</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>100.586582616449</v>
+        <v>100.5865826164489</v>
       </c>
       <c r="M2" t="n">
-        <v>78.80335741255509</v>
+        <v>78.80335741255513</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089493</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-1.865383176398715e-14</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.367539246897536</v>
+        <v>1.367539246897422</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.586582616449</v>
+        <v>100.5865826164489</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4082420237969586</v>
+        <v>0.4082420237968373</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>127.1132721997666</v>
@@ -28217,22 +28217,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>39.45647993275057</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>124.6255903943646</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y12" t="n">
         <v>171.3897001674281</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.15418543428032</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28254,7 +28254,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28302,7 +28302,7 @@
         <v>171.3897001674281</v>
       </c>
       <c r="U13" t="n">
-        <v>171.3897001674281</v>
+        <v>112.0549615054142</v>
       </c>
       <c r="V13" t="n">
         <v>171.3897001674281</v>
@@ -28314,7 +28314,7 @@
         <v>171.3897001674281</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S14" t="n">
         <v>171.3897001674281</v>
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>95.77124205704071</v>
@@ -28460,19 +28460,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>168.8311398105238</v>
       </c>
       <c r="V15" t="n">
-        <v>137.2707398820238</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="X15" t="n">
         <v>171.3897001674281</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="16">
@@ -28491,13 +28491,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>86.72010020460345</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H16" t="n">
         <v>155.3344859367049</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.12980963648911</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>135.6644318885835</v>
@@ -28542,10 +28542,10 @@
         <v>171.3897001674281</v>
       </c>
       <c r="V16" t="n">
-        <v>171.3897001674281</v>
+        <v>127.1847711419033</v>
       </c>
       <c r="W16" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>171.3897001674281</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S17" t="n">
         <v>171.3897001674281</v>
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.444346560795267</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I18" t="n">
         <v>56.4074501722953</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.82520712046109</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>145.180098865789</v>
@@ -28706,7 +28706,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>18.32285766543191</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I19" t="n">
-        <v>70.32848169907743</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.0186762889081</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T19" t="n">
         <v>229.6724362179661</v>
@@ -28782,7 +28782,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>271.9762827838771</v>
+        <v>35.62211884280913</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S20" t="n">
         <v>171.3897001674281</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>68.19350188715698</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.82520712046109</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2882692949636</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>43.59322479720541</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -28959,19 +28959,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>155.3344859367049</v>
@@ -28980,7 +28980,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J22" t="n">
-        <v>40.0186762889081</v>
+        <v>32.76426312300221</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,10 +29004,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T22" t="n">
         <v>229.6724362179661</v>
@@ -29019,13 +29019,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>202.9662702921004</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S23" t="n">
         <v>171.3897001674281</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>56.26098963242293</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>62.85179673309014</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.82520712046109</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>185.4764132683503</v>
@@ -29183,7 +29183,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -29202,16 +29202,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I25" t="n">
         <v>134.4929323504436</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.12980963648911</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>135.6644318885835</v>
@@ -29250,19 +29250,19 @@
         <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>95.7498096308141</v>
       </c>
       <c r="V25" t="n">
-        <v>228.7993738583772</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="C26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="E26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="F26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="G26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="H26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="I26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="K26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="L26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="M26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="N26" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="P26" t="n">
-        <v>40.87787536901772</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901942</v>
       </c>
       <c r="R26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="S26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="T26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="U26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="V26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="W26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="X26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Y26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="C28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="D28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="E28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="F28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="G28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="H28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="I28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="J28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="K28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="L28" t="n">
-        <v>100.9948246402464</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="M28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="N28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="O28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402491</v>
       </c>
       <c r="P28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="R28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="S28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="T28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="U28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="V28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="W28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="X28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
     </row>
     <row r="29">
@@ -29548,10 +29548,10 @@
         <v>100.9948246402459</v>
       </c>
       <c r="O29" t="n">
-        <v>40.87787536901561</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>40.87787536901681</v>
       </c>
       <c r="Q29" t="n">
         <v>100.9948246402459</v>
@@ -29770,22 +29770,22 @@
         <v>100.9948246402459</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>100.9948246402459</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="M32" t="n">
-        <v>40.87787536901664</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="N32" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="O32" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901646</v>
       </c>
       <c r="P32" t="n">
         <v>100.9948246402459</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S35" t="n">
         <v>171.3897001674281</v>
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>56.37822884171927</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.82520712046109</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>144.6662939210256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H37" t="n">
-        <v>24.29780696203159</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I37" t="n">
         <v>134.4929323504436</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.12980963648911</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R37" t="n">
         <v>135.6644318885835</v>
@@ -30207,10 +30207,10 @@
         <v>179.798182052801</v>
       </c>
       <c r="X37" t="n">
-        <v>179.798182052801</v>
+        <v>61.60407019317691</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="C38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="D38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="E38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="F38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="G38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="H38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="I38" t="n">
         <v>147.459308470692</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S38" t="n">
         <v>171.3897001674281</v>
       </c>
       <c r="T38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="U38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="V38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="W38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="X38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30350,13 +30350,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>38.31140217569759</v>
+        <v>87.72025898444517</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.12980963648911</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S40" t="n">
-        <v>17.47032002895966</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="T40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="U40" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>179.798182052801</v>
+        <v>61.60407019317674</v>
       </c>
       <c r="W40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="X40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="C41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="D41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="E41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="F41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="G41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="H41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="I41" t="n">
         <v>147.459308470692</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S41" t="n">
         <v>171.3897001674281</v>
       </c>
       <c r="T41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="U41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="V41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="W41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="X41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="Y41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
     </row>
     <row r="42">
@@ -30554,10 +30554,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>56.4074501722953</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.0056625027903</v>
+        <v>38.82520712046109</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>139.3591476116653</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30630,13 +30630,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>6.72218956614563</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H43" t="n">
-        <v>155.3344859367049</v>
+        <v>39.99806824365855</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J43" t="n">
         <v>40.0186762889081</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.12980963648911</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R43" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="T43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="U43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="V43" t="n">
-        <v>179.389940029004</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="X43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="C44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="D44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="E44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="F44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="G44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="H44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="I44" t="n">
         <v>147.459308470692</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S44" t="n">
         <v>171.3897001674281</v>
       </c>
       <c r="T44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="U44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="V44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="W44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="X44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="Y44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
     <row r="45">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>7.893689104285528</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H46" t="n">
         <v>155.3344859367049</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.12980963648911</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="T46" t="n">
-        <v>179.389940029004</v>
+        <v>79.18333197244786</v>
       </c>
       <c r="U46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="V46" t="n">
-        <v>179.389940029004</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="X46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H14" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I14" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J14" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K14" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L14" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M14" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N14" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O14" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P14" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R14" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S14" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T14" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H15" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I15" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J15" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K15" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L15" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M15" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N15" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O15" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P15" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R15" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S15" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T15" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U15" t="n">
         <v>0.02157518270932034</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H16" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I16" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J16" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K16" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L16" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M16" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N16" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O16" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P16" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R16" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S16" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T16" t="n">
         <v>1.174727434511845</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H17" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I17" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J17" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K17" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L17" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M17" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N17" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O17" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P17" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R17" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S17" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T17" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H18" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I18" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J18" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K18" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L18" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M18" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N18" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O18" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P18" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R18" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S18" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T18" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U18" t="n">
         <v>0.02157518270932034</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H19" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I19" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J19" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K19" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L19" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M19" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N19" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O19" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P19" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R19" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S19" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T19" t="n">
         <v>1.174727434511845</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H20" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I20" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J20" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K20" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L20" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M20" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N20" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O20" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P20" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R20" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S20" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T20" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H21" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I21" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J21" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K21" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L21" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M21" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N21" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O21" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P21" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R21" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S21" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T21" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U21" t="n">
         <v>0.02157518270932034</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H22" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I22" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J22" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K22" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L22" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M22" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N22" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O22" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P22" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R22" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S22" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T22" t="n">
         <v>1.174727434511845</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H23" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I23" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J23" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K23" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L23" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M23" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N23" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O23" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P23" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R23" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S23" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T23" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H24" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I24" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J24" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K24" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L24" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M24" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N24" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O24" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P24" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R24" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S24" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T24" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U24" t="n">
         <v>0.02157518270932034</v>
@@ -32856,43 +32856,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H25" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I25" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J25" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K25" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L25" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M25" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N25" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O25" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P25" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R25" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S25" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T25" t="n">
         <v>1.174727434511845</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H26" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I26" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J26" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K26" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L26" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M26" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N26" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O26" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P26" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R26" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S26" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T26" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H27" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I27" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J27" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K27" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L27" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M27" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N27" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O27" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P27" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R27" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S27" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T27" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U27" t="n">
         <v>0.02157518270932034</v>
@@ -33093,43 +33093,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H28" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I28" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J28" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K28" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L28" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M28" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N28" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O28" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P28" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R28" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S28" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T28" t="n">
         <v>1.174727434511845</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842086</v>
       </c>
       <c r="H29" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970152</v>
       </c>
       <c r="I29" t="n">
         <v>23.62971833259997</v>
@@ -33184,10 +33184,10 @@
         <v>52.02108310308039</v>
       </c>
       <c r="K29" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686695</v>
       </c>
       <c r="L29" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115933</v>
       </c>
       <c r="M29" t="n">
         <v>107.6239356505841</v>
@@ -33199,16 +33199,16 @@
         <v>103.2706492370625</v>
       </c>
       <c r="P29" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292111</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126787</v>
       </c>
       <c r="R29" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740245</v>
       </c>
       <c r="S29" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T29" t="n">
         <v>2.683070929277124</v>
@@ -33257,7 +33257,7 @@
         <v>3.167236821728225</v>
       </c>
       <c r="I30" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J30" t="n">
         <v>30.98340071609795</v>
@@ -33266,22 +33266,22 @@
         <v>52.95556678726977</v>
       </c>
       <c r="L30" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832687</v>
       </c>
       <c r="M30" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116235</v>
       </c>
       <c r="N30" t="n">
-        <v>85.29245063199907</v>
+        <v>85.29245063199909</v>
       </c>
       <c r="O30" t="n">
-        <v>78.02592909549998</v>
+        <v>78.02592909549999</v>
       </c>
       <c r="P30" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655924</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R30" t="n">
         <v>20.36121909554258</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H31" t="n">
         <v>2.444432831814012</v>
       </c>
       <c r="I31" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J31" t="n">
         <v>19.4379899110609</v>
@@ -33345,28 +33345,28 @@
         <v>31.94258853842847</v>
       </c>
       <c r="L31" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086537</v>
       </c>
       <c r="M31" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614415</v>
       </c>
       <c r="N31" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603811</v>
       </c>
       <c r="O31" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P31" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R31" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S31" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764271</v>
       </c>
       <c r="T31" t="n">
         <v>1.174727434511845</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H32" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I32" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J32" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K32" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L32" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M32" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N32" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O32" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P32" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R32" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S32" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T32" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H33" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I33" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J33" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K33" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L33" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M33" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N33" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O33" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P33" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R33" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S33" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T33" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U33" t="n">
         <v>0.02157518270932034</v>
@@ -33567,43 +33567,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H34" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I34" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J34" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K34" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L34" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M34" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N34" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O34" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P34" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R34" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S34" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T34" t="n">
         <v>1.174727434511845</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H35" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I35" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J35" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K35" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L35" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M35" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N35" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O35" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P35" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R35" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S35" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T35" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H36" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I36" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J36" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K36" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L36" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M36" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N36" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O36" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P36" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q36" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R36" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S36" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T36" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U36" t="n">
         <v>0.02157518270932034</v>
@@ -33804,43 +33804,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H37" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I37" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J37" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K37" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L37" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M37" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N37" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O37" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P37" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R37" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S37" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T37" t="n">
         <v>1.174727434511845</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H38" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I38" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J38" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K38" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L38" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M38" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N38" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O38" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P38" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R38" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S38" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T38" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H39" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I39" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J39" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K39" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L39" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M39" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N39" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O39" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P39" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R39" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S39" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T39" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U39" t="n">
         <v>0.02157518270932034</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H40" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I40" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J40" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K40" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L40" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M40" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N40" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O40" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P40" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R40" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S40" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T40" t="n">
         <v>1.174727434511845</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H41" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I41" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J41" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K41" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L41" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M41" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N41" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O41" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P41" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R41" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S41" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T41" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H42" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I42" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J42" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K42" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L42" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M42" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N42" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O42" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P42" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R42" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S42" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T42" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U42" t="n">
         <v>0.02157518270932034</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H43" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I43" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J43" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K43" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L43" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M43" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N43" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O43" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P43" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R43" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S43" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T43" t="n">
         <v>1.174727434511845</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H44" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I44" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J44" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K44" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L44" t="n">
-        <v>96.72386423115931</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M44" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N44" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O44" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P44" t="n">
-        <v>88.1391098729211</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R44" t="n">
-        <v>38.50153152740244</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S44" t="n">
-        <v>13.96698544852141</v>
+        <v>13.96698544852142</v>
       </c>
       <c r="T44" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H45" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I45" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454431</v>
       </c>
       <c r="J45" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K45" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L45" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M45" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N45" t="n">
-        <v>85.29245063199907</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O45" t="n">
-        <v>78.02592909549998</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P45" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813727</v>
       </c>
       <c r="R45" t="n">
         <v>20.36121909554258</v>
       </c>
       <c r="S45" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T45" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U45" t="n">
         <v>0.02157518270932034</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772405</v>
       </c>
       <c r="H46" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I46" t="n">
-        <v>8.268081602904651</v>
+        <v>8.268081602904653</v>
       </c>
       <c r="J46" t="n">
         <v>19.4379899110609</v>
       </c>
       <c r="K46" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L46" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M46" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N46" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O46" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168124</v>
       </c>
       <c r="P46" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690551</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635875</v>
       </c>
       <c r="R46" t="n">
         <v>12.3621316831821</v>
       </c>
       <c r="S46" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T46" t="n">
         <v>1.174727434511845</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.7468853988437</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>289.9750342602084</v>
+        <v>120.6322974881483</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q11" t="n">
         <v>161.5749157061537</v>
@@ -35492,16 +35492,16 @@
         <v>284.7642057369553</v>
       </c>
       <c r="L12" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="M12" t="n">
-        <v>199.6864546362877</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>294.089622170904</v>
+        <v>199.6864546362881</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>282.207213194302</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="M14" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N14" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>120.6322974881483</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K15" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L15" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>291.5326296282506</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>294.089622170904</v>
+        <v>292.5491863573436</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L16" t="n">
         <v>142.49882840638</v>
@@ -35814,7 +35814,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O16" t="n">
         <v>138.3192120852062</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K17" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="L17" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="M17" t="n">
-        <v>294.089622170904</v>
+        <v>157.4603277954583</v>
       </c>
       <c r="N17" t="n">
-        <v>282.2072131943018</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>282.207213194302</v>
+        <v>80.98032274445339</v>
       </c>
       <c r="L18" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="M18" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N18" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L19" t="n">
         <v>142.49882840638</v>
@@ -36051,7 +36051,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N19" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O19" t="n">
         <v>138.3192120852062</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K20" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>282.2072131943018</v>
+        <v>289.9750342602087</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.84617499196274</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>80.98032274445339</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N21" t="n">
-        <v>283.2237699233945</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O21" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q21" t="n">
         <v>201.2268904498486</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L22" t="n">
         <v>142.49882840638</v>
@@ -36288,7 +36288,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N22" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O22" t="n">
         <v>138.3192120852062</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36367,13 +36367,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>289.9750342602087</v>
+      </c>
+      <c r="P23" t="n">
         <v>294.0896221709041</v>
-      </c>
-      <c r="O23" t="n">
-        <v>294.0896221709041</v>
-      </c>
-      <c r="P23" t="n">
-        <v>120.6322974881483</v>
       </c>
       <c r="Q23" t="n">
         <v>161.5749157061537</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L24" t="n">
-        <v>282.2072131943019</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="M24" t="n">
+        <v>199.6864546362881</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>294.0896221709041</v>
-      </c>
-      <c r="N24" t="n">
-        <v>294.0896221709041</v>
-      </c>
-      <c r="O24" t="n">
-        <v>294.0896221709041</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L25" t="n">
         <v>142.49882840638</v>
@@ -36525,7 +36525,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N25" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O25" t="n">
         <v>138.3192120852062</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.7417100390896</v>
+        <v>225.7417100390895</v>
       </c>
       <c r="K26" t="n">
-        <v>421.5269755055803</v>
+        <v>421.5269755055801</v>
       </c>
       <c r="L26" t="n">
         <v>549.1180556238761</v>
@@ -36604,19 +36604,19 @@
         <v>605.8300393343532</v>
       </c>
       <c r="N26" t="n">
-        <v>592.5131156503662</v>
+        <v>491.5182910101204</v>
       </c>
       <c r="O26" t="n">
-        <v>411.356088098511</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P26" t="n">
-        <v>359.4784968137097</v>
+        <v>419.5954460849379</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.5697403463996</v>
+        <v>202.4527910751732</v>
       </c>
       <c r="R26" t="n">
-        <v>49.76445252854314</v>
+        <v>49.76445252854304</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.84617499196274</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>284.7642057369553</v>
+        <v>43.21153340243448</v>
       </c>
       <c r="L27" t="n">
         <v>440.722309991676</v>
       </c>
       <c r="M27" t="n">
-        <v>38.40016287819037</v>
+        <v>573.0259006545224</v>
       </c>
       <c r="N27" t="n">
-        <v>601.7223962109102</v>
+        <v>601.7223962109103</v>
       </c>
       <c r="O27" t="n">
-        <v>474.1874955441372</v>
+        <v>474.1874955441373</v>
       </c>
       <c r="P27" t="n">
         <v>367.7700801943342</v>
       </c>
       <c r="Q27" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.97614835133778</v>
+        <v>60.97614835133767</v>
       </c>
       <c r="K28" t="n">
-        <v>166.8810371631627</v>
+        <v>166.8810371631625</v>
       </c>
       <c r="L28" t="n">
-        <v>243.4936530466265</v>
+        <v>243.4936530466258</v>
       </c>
       <c r="M28" t="n">
-        <v>263.2776846912403</v>
+        <v>263.2776846912402</v>
       </c>
       <c r="N28" t="n">
         <v>262.6860897560823</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3140367254521</v>
+        <v>239.3140367254553</v>
       </c>
       <c r="P28" t="n">
-        <v>197.8516383154724</v>
+        <v>197.8516383154723</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.86501500375677</v>
+        <v>85.86501500375667</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>421.5269755055803</v>
       </c>
       <c r="L29" t="n">
-        <v>549.1180556238761</v>
+        <v>549.1180556238762</v>
       </c>
       <c r="M29" t="n">
         <v>605.8300393343532</v>
@@ -36844,16 +36844,16 @@
         <v>592.5131156503662</v>
       </c>
       <c r="O29" t="n">
-        <v>452.2339634675266</v>
+        <v>411.356088098511</v>
       </c>
       <c r="P29" t="n">
-        <v>318.600621444692</v>
+        <v>359.4784968137088</v>
       </c>
       <c r="Q29" t="n">
         <v>262.5697403463996</v>
       </c>
       <c r="R29" t="n">
-        <v>49.76445252854314</v>
+        <v>49.76445252854317</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.84617499196274</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>284.7642057369553</v>
+        <v>43.21153340243453</v>
       </c>
       <c r="L30" t="n">
         <v>440.722309991676</v>
       </c>
       <c r="M30" t="n">
-        <v>38.40016287819049</v>
+        <v>573.0259006545224</v>
       </c>
       <c r="N30" t="n">
-        <v>601.7223962109102</v>
+        <v>601.7223962109103</v>
       </c>
       <c r="O30" t="n">
         <v>474.1874955441372</v>
@@ -36929,7 +36929,7 @@
         <v>367.7700801943342</v>
       </c>
       <c r="Q30" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.97614835133778</v>
+        <v>60.97614835133781</v>
       </c>
       <c r="K31" t="n">
         <v>166.8810371631627</v>
       </c>
       <c r="L31" t="n">
-        <v>243.4936530466259</v>
+        <v>243.493653046626</v>
       </c>
       <c r="M31" t="n">
         <v>263.2776846912403</v>
       </c>
       <c r="N31" t="n">
-        <v>262.6860897560823</v>
+        <v>262.6860897560824</v>
       </c>
       <c r="O31" t="n">
         <v>239.3140367254521</v>
@@ -37008,7 +37008,7 @@
         <v>197.8516383154724</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86501500375677</v>
+        <v>85.86501500375681</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.7417100390896</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K32" t="n">
-        <v>320.5321508653344</v>
+        <v>421.5269755055803</v>
       </c>
       <c r="L32" t="n">
-        <v>549.1180556238761</v>
+        <v>549.1180556238762</v>
       </c>
       <c r="M32" t="n">
-        <v>545.7130900631239</v>
+        <v>605.8300393343532</v>
       </c>
       <c r="N32" t="n">
         <v>592.5131156503662</v>
       </c>
       <c r="O32" t="n">
-        <v>512.3509127387568</v>
+        <v>452.2339634675275</v>
       </c>
       <c r="P32" t="n">
-        <v>419.5954460849379</v>
+        <v>419.595446084938</v>
       </c>
       <c r="Q32" t="n">
         <v>262.5697403463996</v>
       </c>
       <c r="R32" t="n">
-        <v>49.76445252854314</v>
+        <v>49.76445252854317</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.84617499196274</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K33" t="n">
         <v>284.7642057369553</v>
@@ -37154,13 +37154,13 @@
         <v>440.722309991676</v>
       </c>
       <c r="M33" t="n">
-        <v>38.40016287819049</v>
+        <v>573.0259006545224</v>
       </c>
       <c r="N33" t="n">
-        <v>601.7223962109102</v>
+        <v>67.09665843457817</v>
       </c>
       <c r="O33" t="n">
-        <v>474.1874955441372</v>
+        <v>474.1874955441373</v>
       </c>
       <c r="P33" t="n">
         <v>367.7700801943342</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97614835133778</v>
+        <v>60.9761483513378</v>
       </c>
       <c r="K34" t="n">
         <v>166.8810371631627</v>
@@ -37236,7 +37236,7 @@
         <v>263.2776846912403</v>
       </c>
       <c r="N34" t="n">
-        <v>262.6860897560823</v>
+        <v>262.6860897560824</v>
       </c>
       <c r="O34" t="n">
         <v>239.3140367254521</v>
@@ -37245,7 +37245,7 @@
         <v>197.8516383154724</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86501500375677</v>
+        <v>85.8650150037568</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K35" t="n">
-        <v>138.9891480023518</v>
+        <v>320.5321508653344</v>
       </c>
       <c r="L35" t="n">
         <v>448.1232309836303</v>
@@ -37315,13 +37315,13 @@
         <v>504.8352146941073</v>
       </c>
       <c r="N35" t="n">
-        <v>491.5182910101203</v>
+        <v>491.5182910101204</v>
       </c>
       <c r="O35" t="n">
         <v>411.356088098511</v>
       </c>
       <c r="P35" t="n">
-        <v>318.600621444692</v>
+        <v>12.31073318286607</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K36" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>440.722309991676</v>
+        <v>21.10881558965929</v>
       </c>
       <c r="M36" t="n">
-        <v>161.7212659573612</v>
+        <v>573.0259006545224</v>
       </c>
       <c r="N36" t="n">
-        <v>584.2572368089486</v>
+        <v>584.2572368089487</v>
       </c>
       <c r="O36" t="n">
-        <v>474.1874955441372</v>
+        <v>474.1874955441373</v>
       </c>
       <c r="P36" t="n">
         <v>367.7700801943342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L37" t="n">
         <v>142.49882840638</v>
@@ -37473,7 +37473,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N37" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O37" t="n">
         <v>138.3192120852062</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.7468853988437</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>320.5321508653344</v>
@@ -37549,10 +37549,10 @@
         <v>448.1232309836303</v>
       </c>
       <c r="M38" t="n">
-        <v>504.8352146941073</v>
+        <v>161.7172961249714</v>
       </c>
       <c r="N38" t="n">
-        <v>23.65348704214064</v>
+        <v>491.5182910101204</v>
       </c>
       <c r="O38" t="n">
         <v>411.356088098511</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>91.84617499196274</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L39" t="n">
         <v>440.722309991676</v>
       </c>
       <c r="M39" t="n">
-        <v>573.0259006545224</v>
+        <v>342.8356960596876</v>
       </c>
       <c r="N39" t="n">
-        <v>164.6437424069316</v>
+        <v>584.2572368089487</v>
       </c>
       <c r="O39" t="n">
-        <v>474.1874955441372</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>367.7700801943342</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L40" t="n">
         <v>142.49882840638</v>
@@ -37710,7 +37710,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N40" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O40" t="n">
         <v>138.3192120852062</v>
@@ -37780,25 +37780,25 @@
         <v>124.7468853988437</v>
       </c>
       <c r="K41" t="n">
-        <v>320.5321508653344</v>
+        <v>306.205480757589</v>
       </c>
       <c r="L41" t="n">
-        <v>448.1232309836303</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>504.8352146941073</v>
       </c>
       <c r="N41" t="n">
-        <v>491.5182910101203</v>
+        <v>491.5182910101204</v>
       </c>
       <c r="O41" t="n">
         <v>411.356088098511</v>
       </c>
       <c r="P41" t="n">
-        <v>17.72563605947028</v>
+        <v>318.600621444692</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L42" t="n">
         <v>440.722309991676</v>
       </c>
       <c r="M42" t="n">
-        <v>573.0259006545224</v>
+        <v>165.7686295870682</v>
       </c>
       <c r="N42" t="n">
         <v>585.6247760558462</v>
       </c>
       <c r="O42" t="n">
-        <v>474.1874955441372</v>
+        <v>474.1874955441373</v>
       </c>
       <c r="P42" t="n">
-        <v>245.2770148638353</v>
+        <v>367.7700801943342</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L43" t="n">
         <v>142.49882840638</v>
@@ -37947,7 +37947,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N43" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O43" t="n">
         <v>138.3192120852062</v>
@@ -38026,16 +38026,16 @@
         <v>504.8352146941073</v>
       </c>
       <c r="N44" t="n">
-        <v>29.06838991874508</v>
+        <v>491.5182910101204</v>
       </c>
       <c r="O44" t="n">
         <v>411.356088098511</v>
       </c>
       <c r="P44" t="n">
-        <v>318.600621444692</v>
+        <v>17.72563605946982</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.5749157061537</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K45" t="n">
         <v>284.7642057369553</v>
@@ -38102,19 +38102,19 @@
         <v>440.722309991676</v>
       </c>
       <c r="M45" t="n">
-        <v>165.7686295870682</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>585.6247760558462</v>
+        <v>458.320340201103</v>
       </c>
       <c r="O45" t="n">
-        <v>474.1874955441372</v>
+        <v>474.1874955441373</v>
       </c>
       <c r="P45" t="n">
         <v>367.7700801943342</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L46" t="n">
         <v>142.49882840638</v>
@@ -38184,7 +38184,7 @@
         <v>162.2828600509944</v>
       </c>
       <c r="N46" t="n">
-        <v>161.6912651158364</v>
+        <v>161.6912651158365</v>
       </c>
       <c r="O46" t="n">
         <v>138.3192120852062</v>
